--- a/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.04574400380245</v>
+        <v>18.04574400380247</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.516123801613236</v>
+        <v>4.516123801613362</v>
       </c>
       <c r="E2">
-        <v>30.5246890849683</v>
+        <v>30.52468908496847</v>
       </c>
       <c r="F2">
-        <v>45.12647893181661</v>
+        <v>45.12647893181678</v>
       </c>
       <c r="G2">
-        <v>35.588314212731</v>
+        <v>35.58831421273118</v>
       </c>
       <c r="H2">
-        <v>16.43070507573691</v>
+        <v>16.4307050757369</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>31.11667186441846</v>
+        <v>31.11667186441852</v>
       </c>
       <c r="L2">
-        <v>27.68567806661763</v>
+        <v>27.68567806661768</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.81749736856405</v>
+        <v>16.81749736856407</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.110302359343523</v>
+        <v>4.110302359343535</v>
       </c>
       <c r="E3">
-        <v>28.61052078221945</v>
+        <v>28.61052078221957</v>
       </c>
       <c r="F3">
-        <v>41.49842780055209</v>
+        <v>41.49842780055215</v>
       </c>
       <c r="G3">
-        <v>32.683417201547</v>
+        <v>32.6834172015471</v>
       </c>
       <c r="H3">
-        <v>16.15390177505769</v>
+        <v>16.1539017750577</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.87790738097788</v>
+        <v>28.87790738097792</v>
       </c>
       <c r="L3">
-        <v>25.76935557400265</v>
+        <v>25.76935557400271</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.02257720126682</v>
+        <v>16.02257720126684</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.857766169195572</v>
+        <v>3.85776616919565</v>
       </c>
       <c r="E4">
-        <v>27.38197762747991</v>
+        <v>27.38197762747979</v>
       </c>
       <c r="F4">
-        <v>39.22237496616695</v>
+        <v>39.22237496616692</v>
       </c>
       <c r="G4">
-        <v>30.85964273751071</v>
+        <v>30.85964273751072</v>
       </c>
       <c r="H4">
-        <v>16.01251464512681</v>
+        <v>16.01251464512668</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>27.44108889807174</v>
+        <v>27.44108889807175</v>
       </c>
       <c r="L4">
-        <v>24.53669566742639</v>
+        <v>24.53669566742641</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.68823728220965</v>
+        <v>15.68823728220963</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.753767990911509</v>
+        <v>3.753767990911474</v>
       </c>
       <c r="E5">
-        <v>26.86776828020339</v>
+        <v>26.86776828020334</v>
       </c>
       <c r="F5">
-        <v>38.28148700180964</v>
+        <v>38.28148700180962</v>
       </c>
       <c r="G5">
         <v>30.10528487558212</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>26.83935489937195</v>
+        <v>26.83935489937197</v>
       </c>
       <c r="L5">
         <v>24.01991337656203</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.63208794422959</v>
+        <v>15.63208794422961</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.736427029972315</v>
+        <v>3.736427029972238</v>
       </c>
       <c r="E6">
-        <v>26.78156138163305</v>
+        <v>26.78156138163304</v>
       </c>
       <c r="F6">
-        <v>38.12441618170792</v>
+        <v>38.12441618170788</v>
       </c>
       <c r="G6">
-        <v>29.9793242989617</v>
+        <v>29.97932429896167</v>
       </c>
       <c r="H6">
-        <v>15.95368564832371</v>
+        <v>15.95368564832379</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>26.73844236582912</v>
+        <v>26.73844236582913</v>
       </c>
       <c r="L6">
         <v>23.93321865305191</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.01811048761414</v>
+        <v>16.01811048761412</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.85636831311707</v>
+        <v>3.856368313116964</v>
       </c>
       <c r="E7">
-        <v>27.37509792301315</v>
+        <v>27.37509792301324</v>
       </c>
       <c r="F7">
-        <v>39.20974134770312</v>
+        <v>39.20974134770307</v>
       </c>
       <c r="G7">
-        <v>30.84951559105738</v>
+        <v>30.84951559105736</v>
       </c>
       <c r="H7">
-        <v>16.01180246152052</v>
+        <v>16.01180246152065</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>27.43304008182756</v>
+        <v>27.43304008182758</v>
       </c>
       <c r="L7">
         <v>24.52978517621621</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.63061025812706</v>
+        <v>17.63061025812703</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.376736255004482</v>
+        <v>4.376736255004595</v>
       </c>
       <c r="E8">
-        <v>29.8755910145113</v>
+        <v>29.87559101451127</v>
       </c>
       <c r="F8">
-        <v>43.88474663567997</v>
+        <v>43.88474663567983</v>
       </c>
       <c r="G8">
-        <v>34.59432396838901</v>
+        <v>34.5943239683889</v>
       </c>
       <c r="H8">
-        <v>16.32911450060195</v>
+        <v>16.32911450060198</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>30.35728582426763</v>
+        <v>30.35728582426758</v>
       </c>
       <c r="L8">
-        <v>27.03631501272303</v>
+        <v>27.03631501272298</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.383798243877957</v>
+        <v>5.383798243877969</v>
       </c>
       <c r="E9">
-        <v>34.37095146456544</v>
+        <v>34.37095146456549</v>
       </c>
       <c r="F9">
-        <v>52.74231208649359</v>
+        <v>52.74231208649369</v>
       </c>
       <c r="G9">
-        <v>41.68217848902932</v>
+        <v>41.68217848902943</v>
       </c>
       <c r="H9">
-        <v>17.19455683896941</v>
+        <v>17.19455683896943</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.62900060960169</v>
+        <v>35.62900060960174</v>
       </c>
       <c r="L9">
-        <v>31.52757788240806</v>
+        <v>31.52757788240808</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.38896130586164</v>
+        <v>22.38896130586166</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.139164610856601</v>
+        <v>6.13916461085666</v>
       </c>
       <c r="E10">
-        <v>37.45610676347659</v>
+        <v>37.45610676347651</v>
       </c>
       <c r="F10">
         <v>59.20217558785455</v>
@@ -734,7 +734,7 @@
         <v>46.85142115035048</v>
       </c>
       <c r="H10">
-        <v>18.00271082370995</v>
+        <v>18.00271082370989</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>39.27361711996222</v>
       </c>
       <c r="L10">
-        <v>34.60491656271432</v>
+        <v>34.60491656271433</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.22347525406626</v>
+        <v>23.22347525406619</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.493611023584535</v>
+        <v>6.493611023584574</v>
       </c>
       <c r="E11">
         <v>38.82368609885271</v>
       </c>
       <c r="F11">
-        <v>62.1770935953375</v>
+        <v>62.17709359533762</v>
       </c>
       <c r="G11">
-        <v>49.2330077944173</v>
+        <v>49.23300779441738</v>
       </c>
       <c r="H11">
         <v>18.41386208099668</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40.89840246056854</v>
+        <v>40.89840246056863</v>
       </c>
       <c r="L11">
-        <v>35.96768342634331</v>
+        <v>35.9676834263433</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.53481951327323</v>
+        <v>23.53481951327325</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.630264236186941</v>
+        <v>6.630264236186918</v>
       </c>
       <c r="E12">
-        <v>39.33781119114114</v>
+        <v>39.33781119114105</v>
       </c>
       <c r="F12">
-        <v>63.31438433055002</v>
+        <v>63.31438433054971</v>
       </c>
       <c r="G12">
-        <v>50.14371559114211</v>
+        <v>50.14371559114187</v>
       </c>
       <c r="H12">
-        <v>18.57643684303055</v>
+        <v>18.57643684303065</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.5107774839401</v>
+        <v>41.51077748394007</v>
       </c>
       <c r="L12">
-        <v>36.47966095662736</v>
+        <v>36.47966095662732</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.46796615159712</v>
+        <v>23.46796615159716</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.600708243763566</v>
+        <v>6.600708243763472</v>
       </c>
       <c r="E13">
-        <v>39.22722352357983</v>
+        <v>39.22722352357991</v>
       </c>
       <c r="F13">
-        <v>63.06886166726119</v>
+        <v>63.06886166726137</v>
       </c>
       <c r="G13">
-        <v>49.94709603314799</v>
+        <v>49.94709603314811</v>
       </c>
       <c r="H13">
-        <v>18.54110589215918</v>
+        <v>18.54110589215924</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.37898413012125</v>
+        <v>41.37898413012138</v>
       </c>
       <c r="L13">
-        <v>36.36955411056799</v>
+        <v>36.36955411056808</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.24918065571969</v>
+        <v>23.24918065571965</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.504798770509767</v>
+        <v>6.504798770509618</v>
       </c>
       <c r="E14">
-        <v>38.86604859285777</v>
+        <v>38.86604859285746</v>
       </c>
       <c r="F14">
-        <v>62.27040529595889</v>
+        <v>62.27040529595846</v>
       </c>
       <c r="G14">
-        <v>49.30772350506363</v>
+        <v>49.30772350506326</v>
       </c>
       <c r="H14">
-        <v>18.4270952049002</v>
+        <v>18.42709520490016</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.94882813255513</v>
+        <v>40.94882813255498</v>
       </c>
       <c r="L14">
-        <v>36.00987708800194</v>
+        <v>36.00987708800182</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.11457377205232</v>
+        <v>23.1145737720523</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.446399041441831</v>
+        <v>6.446399041441864</v>
       </c>
       <c r="E15">
-        <v>38.64438134525292</v>
+        <v>38.64438134525303</v>
       </c>
       <c r="F15">
-        <v>61.78292383101294</v>
+        <v>61.78292383101288</v>
       </c>
       <c r="G15">
-        <v>48.91740210336146</v>
+        <v>48.91740210336145</v>
       </c>
       <c r="H15">
-        <v>18.35817742356165</v>
+        <v>18.35817742356176</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.68503350213742</v>
+        <v>40.68503350213744</v>
       </c>
       <c r="L15">
-        <v>35.78907834904083</v>
+        <v>35.78907834904082</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.33374690021301</v>
+        <v>22.33374690021304</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.116287207811405</v>
+        <v>6.116287207811355</v>
       </c>
       <c r="E16">
         <v>37.36611966166301</v>
       </c>
       <c r="F16">
-        <v>59.00892151314544</v>
+        <v>59.00892151314547</v>
       </c>
       <c r="G16">
-        <v>46.69673892047744</v>
+        <v>46.69673892047743</v>
       </c>
       <c r="H16">
         <v>17.97676692712003</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>39.16691385502972</v>
+        <v>39.16691385502971</v>
       </c>
       <c r="L16">
-        <v>34.51520929948513</v>
+        <v>34.51520929948516</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.84596831846963</v>
+        <v>21.84596831846971</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.917088287340772</v>
+        <v>5.917088287340839</v>
       </c>
       <c r="E17">
-        <v>36.5736134458812</v>
+        <v>36.57361344588144</v>
       </c>
       <c r="F17">
-        <v>57.31986907373086</v>
+        <v>57.31986907373109</v>
       </c>
       <c r="G17">
-        <v>45.34493180827593</v>
+        <v>45.34493180827615</v>
       </c>
       <c r="H17">
-        <v>17.754331892217</v>
+        <v>17.75433189221703</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>38.22826949908846</v>
+        <v>38.22826949908853</v>
       </c>
       <c r="L17">
-        <v>33.72501234272501</v>
+        <v>33.7250123427251</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.803468076326027</v>
+        <v>5.803468076325967</v>
       </c>
       <c r="E18">
-        <v>36.11430001530934</v>
+        <v>36.11430001530924</v>
       </c>
       <c r="F18">
-        <v>56.3513716691562</v>
+        <v>56.3513716691559</v>
       </c>
       <c r="G18">
-        <v>44.56989964507845</v>
+        <v>44.56989964507819</v>
       </c>
       <c r="H18">
-        <v>17.63044569402845</v>
+        <v>17.63044569402849</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.68512570843633</v>
+        <v>37.68512570843625</v>
       </c>
       <c r="L18">
-        <v>33.266923629853</v>
+        <v>33.26692362985295</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.46535984184939</v>
+        <v>21.46535984184942</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.765139624060703</v>
+        <v>5.765139624060751</v>
       </c>
       <c r="E19">
-        <v>35.95815069133156</v>
+        <v>35.95815069133154</v>
       </c>
       <c r="F19">
-        <v>56.02382926860056</v>
+        <v>56.02382926860062</v>
       </c>
       <c r="G19">
-        <v>44.30779925946468</v>
+        <v>44.30779925946472</v>
       </c>
       <c r="H19">
-        <v>17.58917916334823</v>
+        <v>17.5891791633482</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.5006180941989</v>
+        <v>37.50061809419893</v>
       </c>
       <c r="L19">
-        <v>33.1111735570311</v>
+        <v>33.11117355703116</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.89823658719933</v>
+        <v>21.89823658719923</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.938189166500566</v>
+        <v>5.938189166500614</v>
       </c>
       <c r="E20">
-        <v>36.65832911245419</v>
+        <v>36.65832911245414</v>
       </c>
       <c r="F20">
-        <v>57.49932645648605</v>
+        <v>57.49932645648581</v>
       </c>
       <c r="G20">
-        <v>45.48854781210822</v>
+        <v>45.48854781210805</v>
       </c>
       <c r="H20">
         <v>17.77758698480111</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.3285153978628</v>
+        <v>38.32851539786275</v>
       </c>
       <c r="L20">
-        <v>33.80949352980623</v>
+        <v>33.80949352980615</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.31356628477295</v>
+        <v>23.31356628477296</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.532895277256793</v>
+        <v>6.532895277256855</v>
       </c>
       <c r="E21">
-        <v>38.97222222254852</v>
+        <v>38.97222222254839</v>
       </c>
       <c r="F21">
-        <v>62.50458602508166</v>
+        <v>62.50458602508159</v>
       </c>
       <c r="G21">
-        <v>49.49523882486916</v>
+        <v>49.49523882486911</v>
       </c>
       <c r="H21">
-        <v>18.46039046089027</v>
+        <v>18.46039046089016</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.07523611554281</v>
+        <v>41.07523611554274</v>
       </c>
       <c r="L21">
-        <v>36.11562142550719</v>
+        <v>36.11562142550716</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.21162381090261</v>
+        <v>24.21162381090257</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.936390212130565</v>
+        <v>6.936390212130554</v>
       </c>
       <c r="E22">
-        <v>40.46373421413952</v>
+        <v>40.46373421413958</v>
       </c>
       <c r="F22">
-        <v>65.84258217546936</v>
+        <v>65.8425821754695</v>
       </c>
       <c r="G22">
-        <v>52.16877848577253</v>
+        <v>52.16877848577263</v>
       </c>
       <c r="H22">
-        <v>18.94716013099805</v>
+        <v>18.94716013099809</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>42.85484521955396</v>
+        <v>42.85484521955404</v>
       </c>
       <c r="L22">
-        <v>37.59997886788772</v>
+        <v>37.59997886788776</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.73461899925885</v>
+        <v>23.73461899925883</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.719309041312846</v>
+        <v>6.719309041312766</v>
       </c>
       <c r="E23">
-        <v>39.6689659158316</v>
+        <v>39.66896591583168</v>
       </c>
       <c r="F23">
-        <v>64.05256152445138</v>
+        <v>64.05256152445152</v>
       </c>
       <c r="G23">
-        <v>50.73490600275893</v>
+        <v>50.73490600275903</v>
       </c>
       <c r="H23">
-        <v>18.68340599718741</v>
+        <v>18.68340599718748</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.90566926901349</v>
+        <v>41.90566926901354</v>
       </c>
       <c r="L23">
-        <v>36.80930782640677</v>
+        <v>36.8093078264068</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.87461693868393</v>
+        <v>21.87461693868396</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.928646711630687</v>
+        <v>5.928646711630779</v>
       </c>
       <c r="E24">
-        <v>36.62004075507937</v>
+        <v>36.62004075507942</v>
       </c>
       <c r="F24">
-        <v>57.41818618649085</v>
+        <v>57.41818618649089</v>
       </c>
       <c r="G24">
-        <v>45.42361267177352</v>
+        <v>45.42361267177358</v>
       </c>
       <c r="H24">
-        <v>17.76706095977787</v>
+        <v>17.76706095977794</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.28320527615914</v>
+        <v>38.28320527615926</v>
       </c>
       <c r="L24">
-        <v>33.77131149236968</v>
+        <v>33.77131149236977</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.73960939654358</v>
+        <v>19.73960939654357</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.110683326972685</v>
+        <v>5.110683326972659</v>
       </c>
       <c r="E25">
-        <v>33.19597066855283</v>
+        <v>33.19597066855288</v>
       </c>
       <c r="F25">
-        <v>50.36704623951518</v>
+        <v>50.36704623951523</v>
       </c>
       <c r="G25">
-        <v>39.78180367705477</v>
+        <v>39.78180367705481</v>
       </c>
       <c r="H25">
-        <v>16.93201759442755</v>
+        <v>16.93201759442757</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>34.24754912214048</v>
+        <v>34.24754912214052</v>
       </c>
       <c r="L25">
-        <v>30.35471299222089</v>
+        <v>30.35471299222091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.04574400380247</v>
+        <v>18.04574400380245</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.516123801613362</v>
+        <v>4.516123801613236</v>
       </c>
       <c r="E2">
-        <v>30.52468908496847</v>
+        <v>30.5246890849683</v>
       </c>
       <c r="F2">
-        <v>45.12647893181678</v>
+        <v>45.12647893181661</v>
       </c>
       <c r="G2">
-        <v>35.58831421273118</v>
+        <v>35.588314212731</v>
       </c>
       <c r="H2">
-        <v>16.4307050757369</v>
+        <v>16.43070507573691</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>31.11667186441852</v>
+        <v>31.11667186441846</v>
       </c>
       <c r="L2">
-        <v>27.68567806661768</v>
+        <v>27.68567806661763</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.81749736856407</v>
+        <v>16.81749736856405</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.110302359343535</v>
+        <v>4.110302359343523</v>
       </c>
       <c r="E3">
-        <v>28.61052078221957</v>
+        <v>28.61052078221945</v>
       </c>
       <c r="F3">
-        <v>41.49842780055215</v>
+        <v>41.49842780055209</v>
       </c>
       <c r="G3">
-        <v>32.6834172015471</v>
+        <v>32.683417201547</v>
       </c>
       <c r="H3">
-        <v>16.1539017750577</v>
+        <v>16.15390177505769</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.87790738097792</v>
+        <v>28.87790738097788</v>
       </c>
       <c r="L3">
-        <v>25.76935557400271</v>
+        <v>25.76935557400265</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.02257720126684</v>
+        <v>16.02257720126682</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.85776616919565</v>
+        <v>3.857766169195572</v>
       </c>
       <c r="E4">
-        <v>27.38197762747979</v>
+        <v>27.38197762747991</v>
       </c>
       <c r="F4">
-        <v>39.22237496616692</v>
+        <v>39.22237496616695</v>
       </c>
       <c r="G4">
-        <v>30.85964273751072</v>
+        <v>30.85964273751071</v>
       </c>
       <c r="H4">
-        <v>16.01251464512668</v>
+        <v>16.01251464512681</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>27.44108889807175</v>
+        <v>27.44108889807174</v>
       </c>
       <c r="L4">
-        <v>24.53669566742641</v>
+        <v>24.53669566742639</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.68823728220963</v>
+        <v>15.68823728220965</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.753767990911474</v>
+        <v>3.753767990911509</v>
       </c>
       <c r="E5">
-        <v>26.86776828020334</v>
+        <v>26.86776828020339</v>
       </c>
       <c r="F5">
-        <v>38.28148700180962</v>
+        <v>38.28148700180964</v>
       </c>
       <c r="G5">
         <v>30.10528487558212</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>26.83935489937197</v>
+        <v>26.83935489937195</v>
       </c>
       <c r="L5">
         <v>24.01991337656203</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.63208794422961</v>
+        <v>15.63208794422959</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.736427029972238</v>
+        <v>3.736427029972315</v>
       </c>
       <c r="E6">
-        <v>26.78156138163304</v>
+        <v>26.78156138163305</v>
       </c>
       <c r="F6">
-        <v>38.12441618170788</v>
+        <v>38.12441618170792</v>
       </c>
       <c r="G6">
-        <v>29.97932429896167</v>
+        <v>29.9793242989617</v>
       </c>
       <c r="H6">
-        <v>15.95368564832379</v>
+        <v>15.95368564832371</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>26.73844236582913</v>
+        <v>26.73844236582912</v>
       </c>
       <c r="L6">
         <v>23.93321865305191</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.01811048761412</v>
+        <v>16.01811048761414</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.856368313116964</v>
+        <v>3.85636831311707</v>
       </c>
       <c r="E7">
-        <v>27.37509792301324</v>
+        <v>27.37509792301315</v>
       </c>
       <c r="F7">
-        <v>39.20974134770307</v>
+        <v>39.20974134770312</v>
       </c>
       <c r="G7">
-        <v>30.84951559105736</v>
+        <v>30.84951559105738</v>
       </c>
       <c r="H7">
-        <v>16.01180246152065</v>
+        <v>16.01180246152052</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>27.43304008182758</v>
+        <v>27.43304008182756</v>
       </c>
       <c r="L7">
         <v>24.52978517621621</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.63061025812703</v>
+        <v>17.63061025812706</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.376736255004595</v>
+        <v>4.376736255004482</v>
       </c>
       <c r="E8">
-        <v>29.87559101451127</v>
+        <v>29.8755910145113</v>
       </c>
       <c r="F8">
-        <v>43.88474663567983</v>
+        <v>43.88474663567997</v>
       </c>
       <c r="G8">
-        <v>34.5943239683889</v>
+        <v>34.59432396838901</v>
       </c>
       <c r="H8">
-        <v>16.32911450060198</v>
+        <v>16.32911450060195</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>30.35728582426758</v>
+        <v>30.35728582426763</v>
       </c>
       <c r="L8">
-        <v>27.03631501272298</v>
+        <v>27.03631501272303</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.383798243877969</v>
+        <v>5.383798243877957</v>
       </c>
       <c r="E9">
-        <v>34.37095146456549</v>
+        <v>34.37095146456544</v>
       </c>
       <c r="F9">
-        <v>52.74231208649369</v>
+        <v>52.74231208649359</v>
       </c>
       <c r="G9">
-        <v>41.68217848902943</v>
+        <v>41.68217848902932</v>
       </c>
       <c r="H9">
-        <v>17.19455683896943</v>
+        <v>17.19455683896941</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.62900060960174</v>
+        <v>35.62900060960169</v>
       </c>
       <c r="L9">
-        <v>31.52757788240808</v>
+        <v>31.52757788240806</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.38896130586166</v>
+        <v>22.38896130586164</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.13916461085666</v>
+        <v>6.139164610856601</v>
       </c>
       <c r="E10">
-        <v>37.45610676347651</v>
+        <v>37.45610676347659</v>
       </c>
       <c r="F10">
         <v>59.20217558785455</v>
@@ -734,7 +734,7 @@
         <v>46.85142115035048</v>
       </c>
       <c r="H10">
-        <v>18.00271082370989</v>
+        <v>18.00271082370995</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>39.27361711996222</v>
       </c>
       <c r="L10">
-        <v>34.60491656271433</v>
+        <v>34.60491656271432</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.22347525406619</v>
+        <v>23.22347525406626</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.493611023584574</v>
+        <v>6.493611023584535</v>
       </c>
       <c r="E11">
         <v>38.82368609885271</v>
       </c>
       <c r="F11">
-        <v>62.17709359533762</v>
+        <v>62.1770935953375</v>
       </c>
       <c r="G11">
-        <v>49.23300779441738</v>
+        <v>49.2330077944173</v>
       </c>
       <c r="H11">
         <v>18.41386208099668</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40.89840246056863</v>
+        <v>40.89840246056854</v>
       </c>
       <c r="L11">
-        <v>35.9676834263433</v>
+        <v>35.96768342634331</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.53481951327325</v>
+        <v>23.53481951327323</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.630264236186918</v>
+        <v>6.630264236186941</v>
       </c>
       <c r="E12">
-        <v>39.33781119114105</v>
+        <v>39.33781119114114</v>
       </c>
       <c r="F12">
-        <v>63.31438433054971</v>
+        <v>63.31438433055002</v>
       </c>
       <c r="G12">
-        <v>50.14371559114187</v>
+        <v>50.14371559114211</v>
       </c>
       <c r="H12">
-        <v>18.57643684303065</v>
+        <v>18.57643684303055</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.51077748394007</v>
+        <v>41.5107774839401</v>
       </c>
       <c r="L12">
-        <v>36.47966095662732</v>
+        <v>36.47966095662736</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.46796615159716</v>
+        <v>23.46796615159712</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.600708243763472</v>
+        <v>6.600708243763566</v>
       </c>
       <c r="E13">
-        <v>39.22722352357991</v>
+        <v>39.22722352357983</v>
       </c>
       <c r="F13">
-        <v>63.06886166726137</v>
+        <v>63.06886166726119</v>
       </c>
       <c r="G13">
-        <v>49.94709603314811</v>
+        <v>49.94709603314799</v>
       </c>
       <c r="H13">
-        <v>18.54110589215924</v>
+        <v>18.54110589215918</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.37898413012138</v>
+        <v>41.37898413012125</v>
       </c>
       <c r="L13">
-        <v>36.36955411056808</v>
+        <v>36.36955411056799</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.24918065571965</v>
+        <v>23.24918065571969</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.504798770509618</v>
+        <v>6.504798770509767</v>
       </c>
       <c r="E14">
-        <v>38.86604859285746</v>
+        <v>38.86604859285777</v>
       </c>
       <c r="F14">
-        <v>62.27040529595846</v>
+        <v>62.27040529595889</v>
       </c>
       <c r="G14">
-        <v>49.30772350506326</v>
+        <v>49.30772350506363</v>
       </c>
       <c r="H14">
-        <v>18.42709520490016</v>
+        <v>18.4270952049002</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.94882813255498</v>
+        <v>40.94882813255513</v>
       </c>
       <c r="L14">
-        <v>36.00987708800182</v>
+        <v>36.00987708800194</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.1145737720523</v>
+        <v>23.11457377205232</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.446399041441864</v>
+        <v>6.446399041441831</v>
       </c>
       <c r="E15">
-        <v>38.64438134525303</v>
+        <v>38.64438134525292</v>
       </c>
       <c r="F15">
-        <v>61.78292383101288</v>
+        <v>61.78292383101294</v>
       </c>
       <c r="G15">
-        <v>48.91740210336145</v>
+        <v>48.91740210336146</v>
       </c>
       <c r="H15">
-        <v>18.35817742356176</v>
+        <v>18.35817742356165</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.68503350213744</v>
+        <v>40.68503350213742</v>
       </c>
       <c r="L15">
-        <v>35.78907834904082</v>
+        <v>35.78907834904083</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.33374690021304</v>
+        <v>22.33374690021301</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.116287207811355</v>
+        <v>6.116287207811405</v>
       </c>
       <c r="E16">
         <v>37.36611966166301</v>
       </c>
       <c r="F16">
-        <v>59.00892151314547</v>
+        <v>59.00892151314544</v>
       </c>
       <c r="G16">
-        <v>46.69673892047743</v>
+        <v>46.69673892047744</v>
       </c>
       <c r="H16">
         <v>17.97676692712003</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>39.16691385502971</v>
+        <v>39.16691385502972</v>
       </c>
       <c r="L16">
-        <v>34.51520929948516</v>
+        <v>34.51520929948513</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.84596831846971</v>
+        <v>21.84596831846963</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.917088287340839</v>
+        <v>5.917088287340772</v>
       </c>
       <c r="E17">
-        <v>36.57361344588144</v>
+        <v>36.5736134458812</v>
       </c>
       <c r="F17">
-        <v>57.31986907373109</v>
+        <v>57.31986907373086</v>
       </c>
       <c r="G17">
-        <v>45.34493180827615</v>
+        <v>45.34493180827593</v>
       </c>
       <c r="H17">
-        <v>17.75433189221703</v>
+        <v>17.754331892217</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>38.22826949908853</v>
+        <v>38.22826949908846</v>
       </c>
       <c r="L17">
-        <v>33.7250123427251</v>
+        <v>33.72501234272501</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.803468076325967</v>
+        <v>5.803468076326027</v>
       </c>
       <c r="E18">
-        <v>36.11430001530924</v>
+        <v>36.11430001530934</v>
       </c>
       <c r="F18">
-        <v>56.3513716691559</v>
+        <v>56.3513716691562</v>
       </c>
       <c r="G18">
-        <v>44.56989964507819</v>
+        <v>44.56989964507845</v>
       </c>
       <c r="H18">
-        <v>17.63044569402849</v>
+        <v>17.63044569402845</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.68512570843625</v>
+        <v>37.68512570843633</v>
       </c>
       <c r="L18">
-        <v>33.26692362985295</v>
+        <v>33.266923629853</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.46535984184942</v>
+        <v>21.46535984184939</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.765139624060751</v>
+        <v>5.765139624060703</v>
       </c>
       <c r="E19">
-        <v>35.95815069133154</v>
+        <v>35.95815069133156</v>
       </c>
       <c r="F19">
-        <v>56.02382926860062</v>
+        <v>56.02382926860056</v>
       </c>
       <c r="G19">
-        <v>44.30779925946472</v>
+        <v>44.30779925946468</v>
       </c>
       <c r="H19">
-        <v>17.5891791633482</v>
+        <v>17.58917916334823</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.50061809419893</v>
+        <v>37.5006180941989</v>
       </c>
       <c r="L19">
-        <v>33.11117355703116</v>
+        <v>33.1111735570311</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.89823658719923</v>
+        <v>21.89823658719933</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.938189166500614</v>
+        <v>5.938189166500566</v>
       </c>
       <c r="E20">
-        <v>36.65832911245414</v>
+        <v>36.65832911245419</v>
       </c>
       <c r="F20">
-        <v>57.49932645648581</v>
+        <v>57.49932645648605</v>
       </c>
       <c r="G20">
-        <v>45.48854781210805</v>
+        <v>45.48854781210822</v>
       </c>
       <c r="H20">
         <v>17.77758698480111</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.32851539786275</v>
+        <v>38.3285153978628</v>
       </c>
       <c r="L20">
-        <v>33.80949352980615</v>
+        <v>33.80949352980623</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.31356628477296</v>
+        <v>23.31356628477295</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.532895277256855</v>
+        <v>6.532895277256793</v>
       </c>
       <c r="E21">
-        <v>38.97222222254839</v>
+        <v>38.97222222254852</v>
       </c>
       <c r="F21">
-        <v>62.50458602508159</v>
+        <v>62.50458602508166</v>
       </c>
       <c r="G21">
-        <v>49.49523882486911</v>
+        <v>49.49523882486916</v>
       </c>
       <c r="H21">
-        <v>18.46039046089016</v>
+        <v>18.46039046089027</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.07523611554274</v>
+        <v>41.07523611554281</v>
       </c>
       <c r="L21">
-        <v>36.11562142550716</v>
+        <v>36.11562142550719</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.21162381090257</v>
+        <v>24.21162381090261</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.936390212130554</v>
+        <v>6.936390212130565</v>
       </c>
       <c r="E22">
-        <v>40.46373421413958</v>
+        <v>40.46373421413952</v>
       </c>
       <c r="F22">
-        <v>65.8425821754695</v>
+        <v>65.84258217546936</v>
       </c>
       <c r="G22">
-        <v>52.16877848577263</v>
+        <v>52.16877848577253</v>
       </c>
       <c r="H22">
-        <v>18.94716013099809</v>
+        <v>18.94716013099805</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>42.85484521955404</v>
+        <v>42.85484521955396</v>
       </c>
       <c r="L22">
-        <v>37.59997886788776</v>
+        <v>37.59997886788772</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.73461899925883</v>
+        <v>23.73461899925885</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.719309041312766</v>
+        <v>6.719309041312846</v>
       </c>
       <c r="E23">
-        <v>39.66896591583168</v>
+        <v>39.6689659158316</v>
       </c>
       <c r="F23">
-        <v>64.05256152445152</v>
+        <v>64.05256152445138</v>
       </c>
       <c r="G23">
-        <v>50.73490600275903</v>
+        <v>50.73490600275893</v>
       </c>
       <c r="H23">
-        <v>18.68340599718748</v>
+        <v>18.68340599718741</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.90566926901354</v>
+        <v>41.90566926901349</v>
       </c>
       <c r="L23">
-        <v>36.8093078264068</v>
+        <v>36.80930782640677</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.87461693868396</v>
+        <v>21.87461693868393</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.928646711630779</v>
+        <v>5.928646711630687</v>
       </c>
       <c r="E24">
-        <v>36.62004075507942</v>
+        <v>36.62004075507937</v>
       </c>
       <c r="F24">
-        <v>57.41818618649089</v>
+        <v>57.41818618649085</v>
       </c>
       <c r="G24">
-        <v>45.42361267177358</v>
+        <v>45.42361267177352</v>
       </c>
       <c r="H24">
-        <v>17.76706095977794</v>
+        <v>17.76706095977787</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.28320527615926</v>
+        <v>38.28320527615914</v>
       </c>
       <c r="L24">
-        <v>33.77131149236977</v>
+        <v>33.77131149236968</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.73960939654357</v>
+        <v>19.73960939654358</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.110683326972659</v>
+        <v>5.110683326972685</v>
       </c>
       <c r="E25">
-        <v>33.19597066855288</v>
+        <v>33.19597066855283</v>
       </c>
       <c r="F25">
-        <v>50.36704623951523</v>
+        <v>50.36704623951518</v>
       </c>
       <c r="G25">
-        <v>39.78180367705481</v>
+        <v>39.78180367705477</v>
       </c>
       <c r="H25">
-        <v>16.93201759442757</v>
+        <v>16.93201759442755</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>34.24754912214052</v>
+        <v>34.24754912214048</v>
       </c>
       <c r="L25">
-        <v>30.35471299222091</v>
+        <v>30.35471299222089</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.04574400380245</v>
+        <v>18.04626382140888</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.516123801613236</v>
+        <v>4.506203635048595</v>
       </c>
       <c r="E2">
-        <v>30.5246890849683</v>
+        <v>30.50697931734078</v>
       </c>
       <c r="F2">
-        <v>45.12647893181661</v>
+        <v>45.0830942328181</v>
       </c>
       <c r="G2">
-        <v>35.588314212731</v>
+        <v>35.63785855201759</v>
       </c>
       <c r="H2">
-        <v>16.43070507573691</v>
+        <v>35.30340144726509</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.44253646182567</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>31.11667186441846</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>27.68567806661763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>31.10515669495076</v>
+      </c>
+      <c r="M2">
+        <v>27.67851293580058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.81749736856405</v>
+        <v>16.8180581790625</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.110302359343523</v>
+        <v>4.101321300678915</v>
       </c>
       <c r="E3">
-        <v>28.61052078221945</v>
+        <v>28.59456725828191</v>
       </c>
       <c r="F3">
-        <v>41.49842780055209</v>
+        <v>41.45930873748014</v>
       </c>
       <c r="G3">
-        <v>32.683417201547</v>
+        <v>32.72959620205945</v>
       </c>
       <c r="H3">
-        <v>16.15390177505769</v>
+        <v>32.46245579261288</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.16434434527445</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.87790738097788</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>25.76935557400265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>28.86761290069635</v>
+      </c>
+      <c r="M3">
+        <v>25.76298273188999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.02257720126682</v>
+        <v>16.02315508767564</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.857766169195572</v>
+        <v>3.849362691606916</v>
       </c>
       <c r="E4">
-        <v>27.38197762747991</v>
+        <v>27.36711539454001</v>
       </c>
       <c r="F4">
-        <v>39.22237496616695</v>
+        <v>39.18582516998347</v>
       </c>
       <c r="G4">
-        <v>30.85964273751071</v>
+        <v>30.90363327807761</v>
       </c>
       <c r="H4">
-        <v>16.01251464512681</v>
+        <v>30.68455510813594</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.02204987635043</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>27.44108889807174</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>24.53669566742639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>27.43152696054618</v>
+      </c>
+      <c r="M4">
+        <v>24.53079876351554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.68823728220965</v>
+        <v>15.68882039187049</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.753767990911509</v>
+        <v>3.74560110737519</v>
       </c>
       <c r="E5">
-        <v>26.86776828020339</v>
+        <v>26.85335641940399</v>
       </c>
       <c r="F5">
-        <v>38.28148700180964</v>
+        <v>38.24597719010844</v>
       </c>
       <c r="G5">
-        <v>30.10528487558212</v>
+        <v>30.14835512987123</v>
       </c>
       <c r="H5">
-        <v>15.96171895034018</v>
+        <v>29.95069479074042</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.97087283153475</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>26.83935489937195</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>24.01991337656203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>26.83008914974613</v>
+      </c>
+      <c r="M5">
+        <v>24.01420910956634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.63208794422959</v>
+        <v>15.63267182412112</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.736427029972315</v>
+        <v>3.728299531750058</v>
       </c>
       <c r="E6">
-        <v>26.78156138163305</v>
+        <v>26.76722471108198</v>
       </c>
       <c r="F6">
-        <v>38.12441618170792</v>
+        <v>38.08907877298633</v>
       </c>
       <c r="G6">
-        <v>29.9793242989617</v>
+        <v>30.02224007932464</v>
       </c>
       <c r="H6">
-        <v>15.95368564832371</v>
+        <v>29.8282514268411</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.96277556616196</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>26.73844236582912</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>23.93321865305191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>26.72922570706398</v>
+      </c>
+      <c r="M6">
+        <v>23.92754632875133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.01811048761414</v>
+        <v>16.01868845113608</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.85636831311707</v>
+        <v>3.847968020201806</v>
       </c>
       <c r="E7">
-        <v>27.37509792301315</v>
+        <v>27.36024173807961</v>
       </c>
       <c r="F7">
-        <v>39.20974134770312</v>
+        <v>39.17320559912081</v>
       </c>
       <c r="G7">
-        <v>30.84951559105738</v>
+        <v>30.8934938329165</v>
       </c>
       <c r="H7">
-        <v>16.01180246152052</v>
+        <v>30.6746968886778</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.02133259396148</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>27.43304008182756</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>24.52978517621621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>27.42348214593336</v>
+      </c>
+      <c r="M7">
+        <v>24.5238908739891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.63061025812706</v>
+        <v>17.63114609003869</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.376736255004482</v>
+        <v>4.367140351485217</v>
       </c>
       <c r="E8">
-        <v>29.8755910145113</v>
+        <v>29.85848567571152</v>
       </c>
       <c r="F8">
-        <v>43.88474663567997</v>
+        <v>43.84284682917125</v>
       </c>
       <c r="G8">
-        <v>34.59432396838901</v>
+        <v>34.6427347755539</v>
       </c>
       <c r="H8">
-        <v>16.32911450060195</v>
+        <v>34.33016791756192</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.34047966350553</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>30.35728582426763</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>27.03631501272303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>30.34619636298799</v>
+      </c>
+      <c r="M8">
+        <v>27.02942613460073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.47707436451553</v>
+        <v>20.47744567522496</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.383798243877957</v>
+        <v>5.371806856688899</v>
       </c>
       <c r="E9">
-        <v>34.37095146456544</v>
+        <v>34.3494043952641</v>
       </c>
       <c r="F9">
-        <v>52.74231208649359</v>
+        <v>52.68915899180618</v>
       </c>
       <c r="G9">
-        <v>41.68217848902932</v>
+        <v>41.73817793554199</v>
       </c>
       <c r="H9">
-        <v>17.19455683896941</v>
+        <v>41.29014080474386</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.20898772849614</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.62900060960169</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>31.52757788240806</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>35.6146588028609</v>
+      </c>
+      <c r="M9">
+        <v>31.51857733272326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.38896130586164</v>
+        <v>22.38912696049661</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.139164610856601</v>
+        <v>6.125266079607891</v>
       </c>
       <c r="E10">
-        <v>37.45610676347659</v>
+        <v>37.43102428562085</v>
       </c>
       <c r="F10">
-        <v>59.20217558785455</v>
+        <v>59.13962124058629</v>
       </c>
       <c r="G10">
-        <v>46.85142115035048</v>
+        <v>46.91203708143573</v>
       </c>
       <c r="H10">
-        <v>18.00271082370995</v>
+        <v>46.3885564546089</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>18.01892496462607</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.27361711996222</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>34.60491656271432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>39.25650818702389</v>
+      </c>
+      <c r="M10">
+        <v>34.5941142853706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.22347525406626</v>
+        <v>23.22351630297132</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.493611023584535</v>
+        <v>6.478770607746323</v>
       </c>
       <c r="E11">
-        <v>38.82368609885271</v>
+        <v>38.79684700659102</v>
       </c>
       <c r="F11">
-        <v>62.1770935953375</v>
+        <v>62.10976285239103</v>
       </c>
       <c r="G11">
-        <v>49.2330077944173</v>
+        <v>49.29539958030135</v>
       </c>
       <c r="H11">
-        <v>18.41386208099668</v>
+        <v>48.74195049695753</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.43075015008344</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40.89840246056854</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>35.96768342634331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>40.8798707162068</v>
+      </c>
+      <c r="M11">
+        <v>35.9559523597756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.53481951327323</v>
+        <v>23.53480723085078</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.630264236186941</v>
+        <v>6.615050817700409</v>
       </c>
       <c r="E12">
-        <v>39.33781119114114</v>
+        <v>39.31027381844379</v>
       </c>
       <c r="F12">
-        <v>63.31438433055002</v>
+        <v>63.2451390066763</v>
       </c>
       <c r="G12">
-        <v>50.14371559114211</v>
+        <v>50.20671629751673</v>
       </c>
       <c r="H12">
-        <v>18.57643684303055</v>
+        <v>49.64248348870008</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.5935567762154</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.5107774839401</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>36.47966095662736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>41.49167245018165</v>
+      </c>
+      <c r="M12">
+        <v>36.46755520248385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.46796615159712</v>
+        <v>23.46796566354931</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.600708243763566</v>
+        <v>6.585576002903458</v>
       </c>
       <c r="E13">
-        <v>39.22722352357983</v>
+        <v>39.19983825568521</v>
       </c>
       <c r="F13">
-        <v>63.06886166726119</v>
+        <v>63.00003410590055</v>
       </c>
       <c r="G13">
-        <v>49.94709603314799</v>
+        <v>50.00996879574503</v>
       </c>
       <c r="H13">
-        <v>18.54110589215918</v>
+        <v>49.44803426511476</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.55817699437195</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.37898413012125</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>36.36955411056799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>41.36000432771313</v>
+      </c>
+      <c r="M13">
+        <v>36.357530226311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.24918065571969</v>
+        <v>23.249217452567</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.504798770509767</v>
+        <v>6.489928036478379</v>
       </c>
       <c r="E14">
-        <v>38.86604859285777</v>
+        <v>38.83915280228301</v>
       </c>
       <c r="F14">
-        <v>62.27040529595889</v>
+        <v>62.20291941225803</v>
       </c>
       <c r="G14">
-        <v>49.30772350506363</v>
+        <v>49.37016679108013</v>
       </c>
       <c r="H14">
-        <v>18.4270952049002</v>
+        <v>48.81581954024723</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.44400284111813</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.94882813255513</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>36.00987708800194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>40.9302499952205</v>
+      </c>
+      <c r="M14">
+        <v>35.99811570969926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.11457377205232</v>
+        <v>23.1146325438797</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.446399041441831</v>
+        <v>6.431686149917494</v>
       </c>
       <c r="E15">
-        <v>38.64438134525292</v>
+        <v>38.6177806260249</v>
       </c>
       <c r="F15">
-        <v>61.78292383101294</v>
+        <v>61.71624470328524</v>
       </c>
       <c r="G15">
-        <v>48.91740210336146</v>
+        <v>48.97957338846516</v>
       </c>
       <c r="H15">
-        <v>18.35817742356165</v>
+        <v>48.4299453738733</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.37498177118454</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.68503350213742</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>35.78907834904083</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>40.66669649538341</v>
+      </c>
+      <c r="M15">
+        <v>35.7774744995105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.33374690021301</v>
+        <v>22.33391994559571</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.116287207811405</v>
+        <v>6.102448307176351</v>
       </c>
       <c r="E16">
-        <v>37.36611966166301</v>
+        <v>37.34114810388777</v>
       </c>
       <c r="F16">
-        <v>59.00892151314544</v>
+        <v>58.94666668102195</v>
       </c>
       <c r="G16">
-        <v>46.69673892047744</v>
+        <v>46.75723101430825</v>
       </c>
       <c r="H16">
-        <v>17.97676692712003</v>
+        <v>46.23579111825927</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.99293397359168</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>39.16691385502972</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>34.51520929948513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>39.14989377669404</v>
+      </c>
+      <c r="M16">
+        <v>34.50446497109995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.84596831846963</v>
+        <v>21.84620252725126</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.917088287340772</v>
+        <v>5.903763210604893</v>
       </c>
       <c r="E17">
-        <v>36.5736134458812</v>
+        <v>36.54959642158737</v>
       </c>
       <c r="F17">
-        <v>57.31986907373086</v>
+        <v>57.26018052316654</v>
       </c>
       <c r="G17">
-        <v>45.34493180827593</v>
+        <v>45.40430116693062</v>
       </c>
       <c r="H17">
-        <v>17.754331892217</v>
+        <v>44.90122301323937</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.77007049089776</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>38.22826949908846</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>33.72501234272501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>38.21200889993181</v>
+      </c>
+      <c r="M17">
+        <v>33.71476306978686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.5620682015945</v>
+        <v>21.56233479907968</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.803468076326027</v>
+        <v>5.79043198619908</v>
       </c>
       <c r="E18">
-        <v>36.11430001530934</v>
+        <v>36.09081897087121</v>
       </c>
       <c r="F18">
-        <v>56.3513716691562</v>
+        <v>56.29311481775446</v>
       </c>
       <c r="G18">
-        <v>44.56989964507845</v>
+        <v>44.62859409343453</v>
       </c>
       <c r="H18">
-        <v>17.63044569402845</v>
+        <v>44.13648986532866</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.64592518714988</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.68512570843633</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>33.266923629853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>37.66928735908886</v>
+      </c>
+      <c r="M18">
+        <v>33.25694939447033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.46535984184939</v>
+        <v>21.46563696654609</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.765139624060703</v>
+        <v>5.752200389613201</v>
       </c>
       <c r="E19">
-        <v>35.95815069133156</v>
+        <v>35.93484916267863</v>
       </c>
       <c r="F19">
-        <v>56.02382926860056</v>
+        <v>55.96605035876762</v>
       </c>
       <c r="G19">
-        <v>44.30779925946468</v>
+        <v>44.36626057590355</v>
       </c>
       <c r="H19">
-        <v>17.58917916334823</v>
+        <v>43.87794476692329</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.60456884829673</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.5006180941989</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>33.1111735570311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>37.48492046813423</v>
+      </c>
+      <c r="M19">
+        <v>33.10129095213345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.89823658719933</v>
+        <v>21.89846458382184</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.938189166500566</v>
+        <v>5.924810103699389</v>
       </c>
       <c r="E20">
-        <v>36.65832911245419</v>
+        <v>36.63421189594758</v>
       </c>
       <c r="F20">
-        <v>57.49932645648605</v>
+        <v>57.43936951220851</v>
       </c>
       <c r="G20">
-        <v>45.48854781210822</v>
+        <v>45.54803980010258</v>
       </c>
       <c r="H20">
-        <v>17.77758698480111</v>
+        <v>45.04296474906976</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.79337252766853</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.3285153978628</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>33.80949352980623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>38.31217552460464</v>
+      </c>
+      <c r="M20">
+        <v>33.79919260487219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.31356628477295</v>
+        <v>23.31359231415921</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.532895277256793</v>
+        <v>6.517948233541897</v>
       </c>
       <c r="E21">
-        <v>38.97222222254852</v>
+        <v>38.94518367903274</v>
       </c>
       <c r="F21">
-        <v>62.50458602508166</v>
+        <v>62.43670928105395</v>
       </c>
       <c r="G21">
-        <v>49.49523882486916</v>
+        <v>49.55781016458257</v>
       </c>
       <c r="H21">
-        <v>18.46039046089027</v>
+        <v>49.00121948396247</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.47734677754888</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.07523611554281</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>36.11562142550719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>41.05654104775702</v>
+      </c>
+      <c r="M21">
+        <v>36.10378364096563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.21162381090261</v>
+        <v>24.21148059091848</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.936390212130565</v>
+        <v>6.920318380675859</v>
       </c>
       <c r="E22">
-        <v>40.46373421413952</v>
+        <v>40.43458354615751</v>
       </c>
       <c r="F22">
-        <v>65.84258217546936</v>
+        <v>65.76888315312992</v>
       </c>
       <c r="G22">
-        <v>52.16877848577253</v>
+        <v>52.23297608095826</v>
       </c>
       <c r="H22">
-        <v>18.94716013099805</v>
+        <v>51.64598246687776</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.96474313371628</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>42.85484521955396</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>37.59997886788772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>42.83440048605917</v>
+      </c>
+      <c r="M22">
+        <v>37.58699654292631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.73461899925885</v>
+        <v>23.73457029939517</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.719309041312846</v>
+        <v>6.703849311500595</v>
       </c>
       <c r="E23">
-        <v>39.6689659158316</v>
+        <v>39.64096654684491</v>
       </c>
       <c r="F23">
-        <v>64.05256152445138</v>
+        <v>63.98204496015148</v>
       </c>
       <c r="G23">
-        <v>50.73490600275893</v>
+        <v>50.79827931645019</v>
       </c>
       <c r="H23">
-        <v>18.68340599718741</v>
+        <v>50.22723267885362</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.70066865345697</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.90566926901349</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>36.80930782640677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>41.88618269118987</v>
+      </c>
+      <c r="M23">
+        <v>36.79695256389783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.87461693868393</v>
+        <v>21.87484775235177</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.928646711630687</v>
+        <v>5.915292075532665</v>
       </c>
       <c r="E24">
-        <v>36.62004075507937</v>
+        <v>36.59596887451757</v>
       </c>
       <c r="F24">
-        <v>57.41818618649085</v>
+        <v>57.35835071677143</v>
       </c>
       <c r="G24">
-        <v>45.42361267177352</v>
+        <v>45.4830493095924</v>
       </c>
       <c r="H24">
-        <v>17.76706095977787</v>
+        <v>44.97887575073176</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.78282531874385</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.28320527615914</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>33.77131149236968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>38.26690128678077</v>
+      </c>
+      <c r="M24">
+        <v>33.76103394863303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.73960939654358</v>
+        <v>19.74003691199195</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.110683326972685</v>
+        <v>5.099355168547074</v>
       </c>
       <c r="E25">
-        <v>33.19597066855283</v>
+        <v>33.17565021761054</v>
       </c>
       <c r="F25">
-        <v>50.36704623951518</v>
+        <v>50.31707305026962</v>
       </c>
       <c r="G25">
-        <v>39.78180367705477</v>
+        <v>39.83589119968637</v>
       </c>
       <c r="H25">
-        <v>16.93201759442755</v>
+        <v>39.41993968565725</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.94569052424589</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>34.24754912214048</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>30.35471299222089</v>
+        <v>34.23413279260378</v>
+      </c>
+      <c r="M25">
+        <v>30.34631379621747</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.04626382140888</v>
+        <v>7.267336703351505</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.506203635048595</v>
+        <v>3.613570395928448</v>
       </c>
       <c r="E2">
-        <v>30.50697931734078</v>
+        <v>8.554541151885894</v>
       </c>
       <c r="F2">
-        <v>45.0830942328181</v>
+        <v>50.81809450193228</v>
       </c>
       <c r="G2">
-        <v>35.63785855201759</v>
+        <v>2.008158859359043</v>
       </c>
       <c r="H2">
-        <v>35.30340144726509</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.44253646182567</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.857022262708861</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>47.0587412853991</v>
       </c>
       <c r="L2">
-        <v>31.10515669495076</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>27.67851293580058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.73737615612497</v>
+      </c>
+      <c r="O2">
+        <v>37.71916831907664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.8180581790625</v>
+        <v>6.906679803904201</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.101321300678915</v>
+        <v>3.543015985362072</v>
       </c>
       <c r="E3">
-        <v>28.59456725828191</v>
+        <v>8.264058275870449</v>
       </c>
       <c r="F3">
-        <v>41.45930873748014</v>
+        <v>47.68022843039489</v>
       </c>
       <c r="G3">
-        <v>32.72959620205945</v>
+        <v>2.02805546337633</v>
       </c>
       <c r="H3">
-        <v>32.46245579261288</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.16434434527445</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.683270512228955</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>43.60277176348345</v>
       </c>
       <c r="L3">
-        <v>28.86761290069635</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>25.76298273188999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.8334798612024</v>
+      </c>
+      <c r="O3">
+        <v>35.42775981292298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.02315508767564</v>
+        <v>6.678900765077856</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.849362691606916</v>
+        <v>3.500793304719131</v>
       </c>
       <c r="E4">
-        <v>27.36711539454001</v>
+        <v>8.090174532204362</v>
       </c>
       <c r="F4">
-        <v>39.18582516998347</v>
+        <v>45.75898003856597</v>
       </c>
       <c r="G4">
-        <v>30.90363327807761</v>
+        <v>2.040324359085766</v>
       </c>
       <c r="H4">
-        <v>30.68455510813594</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.02204987635043</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.583362559273938</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>41.38942369368588</v>
       </c>
       <c r="L4">
-        <v>27.43152696054618</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>24.53079876351554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.89705241375825</v>
+      </c>
+      <c r="O4">
+        <v>34.03007273061206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.68882039187049</v>
+        <v>6.584606884431982</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.74560110737519</v>
+        <v>3.483797136640464</v>
       </c>
       <c r="E5">
-        <v>26.85335641940399</v>
+        <v>8.020402095694557</v>
       </c>
       <c r="F5">
-        <v>38.24597719010844</v>
+        <v>44.97705707402082</v>
       </c>
       <c r="G5">
-        <v>30.14835512987123</v>
+        <v>2.045349747781584</v>
       </c>
       <c r="H5">
-        <v>29.95069479074042</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15.97087283153475</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.544251252239598</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>40.46354056839585</v>
       </c>
       <c r="L5">
-        <v>26.83008914974613</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>24.01420910956634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.92411162599578</v>
+      </c>
+      <c r="O5">
+        <v>33.46254179293903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.63267182412112</v>
+        <v>6.56886450687834</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.728299531750058</v>
+        <v>3.480985883446172</v>
       </c>
       <c r="E6">
-        <v>26.76722471108198</v>
+        <v>8.008881322608975</v>
       </c>
       <c r="F6">
-        <v>38.08907877298633</v>
+        <v>44.84727615891097</v>
       </c>
       <c r="G6">
-        <v>30.02224007932464</v>
+        <v>2.046186096104498</v>
       </c>
       <c r="H6">
-        <v>29.8282514268411</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15.96277556616196</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.537850884260902</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>40.30832817019881</v>
       </c>
       <c r="L6">
-        <v>26.72922570706398</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>23.92754632875133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.92867450753283</v>
+      </c>
+      <c r="O6">
+        <v>33.36842339474036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.01868845113608</v>
+        <v>6.677634869540654</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.847968020201806</v>
+        <v>3.50056331808569</v>
       </c>
       <c r="E7">
-        <v>27.36024173807961</v>
+        <v>8.089229193043755</v>
       </c>
       <c r="F7">
-        <v>39.17320559912081</v>
+        <v>45.74843091174271</v>
       </c>
       <c r="G7">
-        <v>30.8934938329165</v>
+        <v>2.040392013828243</v>
       </c>
       <c r="H7">
-        <v>30.6746968886778</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.02133259396148</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.582828728687823</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>41.37703494020185</v>
       </c>
       <c r="L7">
-        <v>27.42348214593336</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>24.5238908739891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.89741267136346</v>
+      </c>
+      <c r="O7">
+        <v>34.0224107468629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.63114609003869</v>
+        <v>7.14436257954257</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.367140351485217</v>
+        <v>3.588971800510888</v>
       </c>
       <c r="E8">
-        <v>29.85848567571152</v>
+        <v>8.453423819362307</v>
       </c>
       <c r="F8">
-        <v>43.84284682917125</v>
+        <v>49.73469908575034</v>
       </c>
       <c r="G8">
-        <v>34.6427347755539</v>
+        <v>2.015016529527169</v>
       </c>
       <c r="H8">
-        <v>34.33016791756192</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.34047966350553</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.795639876884723</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>45.88546730751237</v>
       </c>
       <c r="L8">
-        <v>30.34619636298799</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>27.02942613460073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.76956959619089</v>
+      </c>
+      <c r="O8">
+        <v>36.92691108888065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.47744567522496</v>
+        <v>8.005151215727951</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.371806856688899</v>
+        <v>3.774786941243402</v>
       </c>
       <c r="E9">
-        <v>34.3494043952641</v>
+        <v>9.206349885655642</v>
       </c>
       <c r="F9">
-        <v>52.68915899180618</v>
+        <v>57.66309049744297</v>
       </c>
       <c r="G9">
-        <v>41.73817793554199</v>
+        <v>1.964980756455819</v>
       </c>
       <c r="H9">
-        <v>41.29014080474386</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.20898772849614</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.272403294327948</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>54.05372552557638</v>
       </c>
       <c r="L9">
-        <v>35.6146588028609</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>31.51857733272326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.55459515580652</v>
+      </c>
+      <c r="O9">
+        <v>42.91143974357364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.38912696049661</v>
+        <v>8.655435104040432</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.125266079607891</v>
+        <v>3.9257462702987</v>
       </c>
       <c r="E10">
-        <v>37.43102428562085</v>
+        <v>9.790929472206839</v>
       </c>
       <c r="F10">
-        <v>59.13962124058629</v>
+        <v>63.95728361290844</v>
       </c>
       <c r="G10">
-        <v>46.91203708143573</v>
+        <v>1.926825399526496</v>
       </c>
       <c r="H10">
-        <v>46.3885564546089</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>18.01892496462607</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.66938297538557</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>59.73743149541421</v>
       </c>
       <c r="L10">
-        <v>39.25650818702389</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>34.5941142853706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12.41708028401003</v>
+      </c>
+      <c r="O10">
+        <v>47.76284749569334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.22351630297132</v>
+        <v>8.969463166502864</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.478770607746323</v>
+        <v>3.999790959928704</v>
       </c>
       <c r="E11">
-        <v>38.79684700659102</v>
+        <v>10.06675434727064</v>
       </c>
       <c r="F11">
-        <v>62.10976285239103</v>
+        <v>66.87437305997243</v>
       </c>
       <c r="G11">
-        <v>49.29539958030135</v>
+        <v>1.908779669111165</v>
       </c>
       <c r="H11">
-        <v>48.74195049695753</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>18.43075015008344</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.863572603381186</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>62.28308648835912</v>
       </c>
       <c r="L11">
-        <v>40.8798707162068</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>35.9559523597756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>12.35834001833472</v>
+      </c>
+      <c r="O11">
+        <v>50.00685198343186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.53480723085078</v>
+        <v>9.086091405967343</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.615050817700409</v>
+        <v>4.028871100632399</v>
       </c>
       <c r="E12">
-        <v>39.31027381844379</v>
+        <v>10.17302443615761</v>
       </c>
       <c r="F12">
-        <v>63.2451390066763</v>
+        <v>67.99174454090883</v>
       </c>
       <c r="G12">
-        <v>50.20671629751673</v>
+        <v>1.901802167711156</v>
       </c>
       <c r="H12">
-        <v>49.64248348870008</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>18.5935567762154</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.939481816535945</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>63.24469188377957</v>
       </c>
       <c r="L12">
-        <v>41.49167245018165</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>36.46755520248385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>12.33655539700388</v>
+      </c>
+      <c r="O12">
+        <v>50.8658613425057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.46796566354931</v>
+        <v>9.061073986173747</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.585576002903458</v>
+        <v>4.022556572923315</v>
       </c>
       <c r="E13">
-        <v>39.19983825568521</v>
+        <v>10.15004820788319</v>
       </c>
       <c r="F13">
-        <v>63.00003410590055</v>
+        <v>67.75043306272208</v>
       </c>
       <c r="G13">
-        <v>50.00996879574503</v>
+        <v>1.903312175178539</v>
       </c>
       <c r="H13">
-        <v>49.44803426511476</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>18.55817699437195</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.923019557315179</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>63.03763349576791</v>
       </c>
       <c r="L13">
-        <v>41.36000432771313</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>36.357530226311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12.34122861102933</v>
+      </c>
+      <c r="O13">
+        <v>50.68036913165356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.249217452567</v>
+        <v>8.979103666771426</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.489928036478379</v>
+        <v>4.002160663698485</v>
       </c>
       <c r="E14">
-        <v>38.83915280228301</v>
+        <v>10.07545790556672</v>
       </c>
       <c r="F14">
-        <v>62.20291941225803</v>
+        <v>66.96600962421051</v>
       </c>
       <c r="G14">
-        <v>49.37016679108013</v>
+        <v>1.908208820794872</v>
       </c>
       <c r="H14">
-        <v>48.81581954024723</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>18.44400284111813</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.869767200162056</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>62.36222292144787</v>
       </c>
       <c r="L14">
-        <v>40.9302499952205</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>35.99811570969926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12.35653925972146</v>
+      </c>
+      <c r="O14">
+        <v>50.07731030420702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.1146325438797</v>
+        <v>8.928598737676541</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.431686149917494</v>
+        <v>3.98981269824722</v>
       </c>
       <c r="E15">
-        <v>38.6177806260249</v>
+        <v>10.03002084738177</v>
       </c>
       <c r="F15">
-        <v>61.71624470328524</v>
+        <v>66.48736451663001</v>
       </c>
       <c r="G15">
-        <v>48.97957338846516</v>
+        <v>1.9111878290963</v>
       </c>
       <c r="H15">
-        <v>48.4299453738733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>18.37498177118454</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.837472638467704</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>61.94832248606312</v>
       </c>
       <c r="L15">
-        <v>40.66669649538341</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>35.7774744995105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>12.36597383509902</v>
+      </c>
+      <c r="O15">
+        <v>49.70926429374418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.33391994559571</v>
+        <v>8.634588740836421</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.102448307176351</v>
+        <v>3.921036344168842</v>
       </c>
       <c r="E16">
-        <v>37.34114810388777</v>
+        <v>9.773133463243882</v>
       </c>
       <c r="F16">
-        <v>58.94666668102195</v>
+        <v>63.76811623428369</v>
       </c>
       <c r="G16">
-        <v>46.75723101430825</v>
+        <v>1.927987339837946</v>
       </c>
       <c r="H16">
-        <v>46.23579111825927</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>17.99293397359168</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.656998494211082</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>59.57052825725483</v>
       </c>
       <c r="L16">
-        <v>39.14989377669404</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>34.50446497109995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>12.42098916879012</v>
+      </c>
+      <c r="O16">
+        <v>47.61724815666973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.84620252725126</v>
+        <v>8.450076016044926</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.903763210604893</v>
+        <v>3.880385000059149</v>
       </c>
       <c r="E17">
-        <v>36.54959642158737</v>
+        <v>9.618314492711095</v>
       </c>
       <c r="F17">
-        <v>57.26018052316654</v>
+        <v>62.11677043573219</v>
       </c>
       <c r="G17">
-        <v>45.40430116693062</v>
+        <v>1.938089030548662</v>
       </c>
       <c r="H17">
-        <v>44.90122301323937</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>17.77007049089776</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.55002268737911</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>58.10369564191858</v>
       </c>
       <c r="L17">
-        <v>38.21200889993181</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>33.71476306978686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>12.45566535235359</v>
+      </c>
+      <c r="O17">
+        <v>46.34575584351621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.56233479907968</v>
+        <v>8.342405048102489</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.79043198619908</v>
+        <v>3.857488882522806</v>
       </c>
       <c r="E18">
-        <v>36.09081897087121</v>
+        <v>9.530167173833391</v>
       </c>
       <c r="F18">
-        <v>56.29311481775446</v>
+        <v>61.17164450225434</v>
       </c>
       <c r="G18">
-        <v>44.62859409343453</v>
+        <v>1.943837778259924</v>
       </c>
       <c r="H18">
-        <v>44.13648986532866</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>17.64592518714988</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.489741621797011</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>57.25600812584842</v>
       </c>
       <c r="L18">
-        <v>37.66928735908886</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>33.25694939447033</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.47597664833586</v>
+      </c>
+      <c r="O18">
+        <v>45.61761814757969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.46563696654609</v>
+        <v>8.311574961437326</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.752200389613201</v>
+        <v>3.849813222860559</v>
       </c>
       <c r="E19">
-        <v>35.93484916267863</v>
+        <v>9.500466873347136</v>
       </c>
       <c r="F19">
-        <v>55.96605035876762</v>
+        <v>60.85232035598143</v>
       </c>
       <c r="G19">
-        <v>44.36626057590355</v>
+        <v>1.945774802234354</v>
       </c>
       <c r="H19">
-        <v>43.87794476692329</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>17.60456884829673</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.469535383694121</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>56.96822156877109</v>
       </c>
       <c r="L19">
-        <v>37.48492046813423</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>33.10129095213345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.48291872498799</v>
+      </c>
+      <c r="O19">
+        <v>45.3715323660464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.89846458382184</v>
+        <v>8.469877090914071</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.924810103699389</v>
+        <v>3.884660495175502</v>
       </c>
       <c r="E20">
-        <v>36.63421189594758</v>
+        <v>9.634699631399362</v>
       </c>
       <c r="F20">
-        <v>57.43936951220851</v>
+        <v>62.29204342793185</v>
       </c>
       <c r="G20">
-        <v>45.54803980010258</v>
+        <v>1.937020333368491</v>
       </c>
       <c r="H20">
-        <v>45.04296474906976</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>17.79337252766853</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.561278634520495</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>58.26023578935344</v>
       </c>
       <c r="L20">
-        <v>38.31217552460464</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>33.79919260487219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>12.45193660173791</v>
+      </c>
+      <c r="O20">
+        <v>46.48075384632207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.31359231415921</v>
+        <v>9.003241834099656</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.517948233541897</v>
+        <v>4.008120576210251</v>
       </c>
       <c r="E21">
-        <v>38.94518367903274</v>
+        <v>10.09731349666118</v>
       </c>
       <c r="F21">
-        <v>62.43670928105395</v>
+        <v>67.19601941612781</v>
       </c>
       <c r="G21">
-        <v>49.55781016458257</v>
+        <v>1.906774895432199</v>
       </c>
       <c r="H21">
-        <v>49.00121948396247</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>18.47734677754888</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.885340212238975</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>62.56063979241928</v>
       </c>
       <c r="L21">
-        <v>41.05654104775702</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>36.10378364096563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12.3520306326985</v>
+      </c>
+      <c r="O21">
+        <v>50.25415396595798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.21148059091848</v>
+        <v>9.338534501249415</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.920318380675859</v>
+        <v>4.095078185176591</v>
       </c>
       <c r="E22">
-        <v>40.43458354615751</v>
+        <v>10.41058677269484</v>
       </c>
       <c r="F22">
-        <v>65.76888315312992</v>
+        <v>70.47905120834496</v>
       </c>
       <c r="G22">
-        <v>52.23297608095826</v>
+        <v>1.886135845785283</v>
       </c>
       <c r="H22">
-        <v>51.64598246687776</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>18.96474313371628</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.111284718682411</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>65.35977642404977</v>
       </c>
       <c r="L22">
-        <v>42.83440048605917</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>37.58699654292631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>12.28933289469605</v>
+      </c>
+      <c r="O22">
+        <v>52.77717308340053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.73457029939517</v>
+        <v>9.160773635818895</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.703849311500595</v>
+        <v>4.047978112316185</v>
       </c>
       <c r="E23">
-        <v>39.64096654684491</v>
+        <v>10.24221053250767</v>
       </c>
       <c r="F23">
-        <v>63.98204496015148</v>
+        <v>68.71753547623817</v>
       </c>
       <c r="G23">
-        <v>50.79827931645019</v>
+        <v>1.897250067426208</v>
       </c>
       <c r="H23">
-        <v>50.22723267885362</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>18.70066865345697</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.989218600070674</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>63.86545250310513</v>
       </c>
       <c r="L23">
-        <v>41.88618269118987</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>36.79695256389783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>12.3226009200919</v>
+      </c>
+      <c r="O23">
+        <v>51.42369480741161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.87484775235177</v>
+        <v>8.460929988854941</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.915292075532665</v>
+        <v>3.882726083573461</v>
       </c>
       <c r="E24">
-        <v>36.59596887451757</v>
+        <v>9.627289258705529</v>
       </c>
       <c r="F24">
-        <v>57.35835071677143</v>
+        <v>62.21278960627457</v>
       </c>
       <c r="G24">
-        <v>45.4830493095924</v>
+        <v>1.937503671482594</v>
       </c>
       <c r="H24">
-        <v>44.97887575073176</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>17.78282531874385</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.556186047825997</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>58.18947788755447</v>
       </c>
       <c r="L24">
-        <v>38.26690128678077</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>33.76103394863303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>12.4536211942165</v>
+      </c>
+      <c r="O24">
+        <v>46.41971261646729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.74003691199195</v>
+        <v>7.778619799531482</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.099355168547074</v>
+        <v>3.722584496341813</v>
       </c>
       <c r="E25">
-        <v>33.17565021761054</v>
+        <v>8.997908680869948</v>
       </c>
       <c r="F25">
-        <v>50.31707305026962</v>
+        <v>55.48055551806368</v>
       </c>
       <c r="G25">
-        <v>39.83589119968637</v>
+        <v>1.978655762958882</v>
       </c>
       <c r="H25">
-        <v>39.41993968565725</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>16.94569052424589</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.136146569161039</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>51.90772483143525</v>
       </c>
       <c r="L25">
-        <v>34.23413279260378</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>30.34631379621747</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.60902372798538</v>
+      </c>
+      <c r="O25">
+        <v>41.14032725877051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.267336703351505</v>
+        <v>7.240851237870213</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.613570395928448</v>
+        <v>8.512954063467291</v>
       </c>
       <c r="E2">
-        <v>8.554541151885894</v>
+        <v>11.51198810356703</v>
       </c>
       <c r="F2">
-        <v>50.81809450193228</v>
+        <v>19.18273253216082</v>
       </c>
       <c r="G2">
-        <v>2.008158859359043</v>
+        <v>18.87028525310476</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.034694427021021</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.857022262708861</v>
+        <v>6.264723352316769</v>
       </c>
       <c r="K2">
-        <v>47.0587412853991</v>
+        <v>18.83499966164313</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.73737615612497</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>37.71916831907664</v>
+        <v>12.7095898521178</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.906679803904201</v>
+        <v>6.885984491906378</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.543015985362072</v>
+        <v>8.104982056889105</v>
       </c>
       <c r="E3">
-        <v>8.264058275870449</v>
+        <v>11.00801994934662</v>
       </c>
       <c r="F3">
-        <v>47.68022843039489</v>
+        <v>18.93219107313946</v>
       </c>
       <c r="G3">
-        <v>2.02805546337633</v>
+        <v>18.68901731939716</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.135437851778098</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.683270512228955</v>
+        <v>6.156126091744454</v>
       </c>
       <c r="K3">
-        <v>43.60277176348345</v>
+        <v>17.7498643426561</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.8334798612024</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>35.42775981292298</v>
+        <v>12.80301746236602</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.678900765077856</v>
+        <v>6.661783202397927</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.500793304719131</v>
+        <v>7.846770290760567</v>
       </c>
       <c r="E4">
-        <v>8.090174532204362</v>
+        <v>10.69262918711381</v>
       </c>
       <c r="F4">
-        <v>45.75898003856597</v>
+        <v>18.79874572553407</v>
       </c>
       <c r="G4">
-        <v>2.040324359085766</v>
+        <v>18.61109743350429</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.203567785000308</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.583362559273938</v>
+        <v>6.091977857878621</v>
       </c>
       <c r="K4">
-        <v>41.38942369368588</v>
+        <v>17.04875968702467</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.89705241375825</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>34.03007273061206</v>
+        <v>12.87567767866669</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.584606884431982</v>
+        <v>6.568961810123962</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.483797136640464</v>
+        <v>7.739740389668781</v>
       </c>
       <c r="E5">
-        <v>8.020402095694557</v>
+        <v>10.56279474496983</v>
       </c>
       <c r="F5">
-        <v>44.97705707402082</v>
+        <v>18.74940019707602</v>
       </c>
       <c r="G5">
-        <v>2.045349747781584</v>
+        <v>18.58742987127712</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.232845999604748</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.544251252239598</v>
+        <v>6.066490157007364</v>
       </c>
       <c r="K5">
-        <v>40.46354056839585</v>
+        <v>16.75440887700639</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.92411162599578</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>33.46254179293903</v>
+        <v>12.90893977641093</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.56886450687834</v>
+        <v>6.553465040755246</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.480985883446172</v>
+        <v>7.721863368770602</v>
       </c>
       <c r="E6">
-        <v>8.008881322608975</v>
+        <v>10.54116262497259</v>
       </c>
       <c r="F6">
-        <v>44.84727615891097</v>
+        <v>18.74150740438364</v>
       </c>
       <c r="G6">
-        <v>2.046186096104498</v>
+        <v>18.58397848608303</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.237797356851614</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.537850884260902</v>
+        <v>6.062297859155464</v>
       </c>
       <c r="K6">
-        <v>40.30832817019881</v>
+        <v>16.70501395342269</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.92867450753283</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>33.36842339474036</v>
+        <v>12.91467795881124</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.677634869540654</v>
+        <v>6.660537096121059</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.50056331808569</v>
+        <v>7.845333970479175</v>
       </c>
       <c r="E7">
-        <v>8.089229193043755</v>
+        <v>10.69088323505675</v>
       </c>
       <c r="F7">
-        <v>45.74843091174271</v>
+        <v>18.79805998606507</v>
       </c>
       <c r="G7">
-        <v>2.040392013828243</v>
+        <v>18.61074594203389</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.20395658798434</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.582828728687823</v>
+        <v>6.091631455796333</v>
       </c>
       <c r="K7">
-        <v>41.37703494020185</v>
+        <v>17.0448247996356</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.89741267136346</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>34.0224107468629</v>
+        <v>12.87611172640412</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.14436257954257</v>
+        <v>7.119874778619743</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.588971800510888</v>
+        <v>8.373960306599065</v>
       </c>
       <c r="E8">
-        <v>8.453423819362307</v>
+        <v>11.33955985310769</v>
       </c>
       <c r="F8">
-        <v>49.73469908575034</v>
+        <v>19.09206487264475</v>
       </c>
       <c r="G8">
-        <v>2.015016529527169</v>
+        <v>18.80068336054411</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.068089745262693</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.795639876884723</v>
+        <v>6.226764194454466</v>
       </c>
       <c r="K8">
-        <v>45.88546730751237</v>
+        <v>18.46813122155679</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.76956959619089</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>36.92691108888065</v>
+        <v>12.73851121881426</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.005151215727951</v>
+        <v>7.965841689073329</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.774786941243402</v>
+        <v>9.344543517586839</v>
       </c>
       <c r="E9">
-        <v>9.206349885655642</v>
+        <v>12.55740252883269</v>
       </c>
       <c r="F9">
-        <v>57.66309049744297</v>
+        <v>19.83350774251099</v>
       </c>
       <c r="G9">
-        <v>1.964980756455819</v>
+        <v>19.4495230478964</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.854466718291856</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.272403294327948</v>
+        <v>6.511055774808691</v>
       </c>
       <c r="K9">
-        <v>54.05372552557638</v>
+        <v>20.97945986755575</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.55459515580652</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>42.91143974357364</v>
+        <v>12.59890399260714</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.655435104040432</v>
+        <v>8.580008424191355</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.9257462702987</v>
+        <v>10.01219377010119</v>
       </c>
       <c r="E10">
-        <v>9.790929472206839</v>
+        <v>13.4113936234309</v>
       </c>
       <c r="F10">
-        <v>63.95728361290844</v>
+        <v>20.48175589600021</v>
       </c>
       <c r="G10">
-        <v>1.926825399526496</v>
+        <v>20.10704057114221</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.734246645057456</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.66938297538557</v>
+        <v>6.730616697688231</v>
       </c>
       <c r="K10">
-        <v>59.73743149541421</v>
+        <v>22.65112209740609</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.41708028401003</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>47.76284749569334</v>
+        <v>12.58803139219635</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.969463166502864</v>
+        <v>8.887883587080491</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.999790959928704</v>
+        <v>10.30529180245025</v>
       </c>
       <c r="E11">
-        <v>10.06675434727064</v>
+        <v>13.7898494887969</v>
       </c>
       <c r="F11">
-        <v>66.87437305997243</v>
+        <v>20.79944191845867</v>
       </c>
       <c r="G11">
-        <v>1.908779669111165</v>
+        <v>20.44709562818934</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.68862086498486</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.863572603381186</v>
+        <v>6.832598953564517</v>
       </c>
       <c r="K11">
-        <v>62.28308648835912</v>
+        <v>23.3737413325738</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.35834001833472</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>50.00685198343186</v>
+        <v>12.60564589368468</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.086091405967343</v>
+        <v>9.002040802919696</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.028871100632399</v>
+        <v>10.41470726946058</v>
       </c>
       <c r="E12">
-        <v>10.17302443615761</v>
+        <v>13.93164439944552</v>
       </c>
       <c r="F12">
-        <v>67.99174454090883</v>
+        <v>20.92302508093667</v>
       </c>
       <c r="G12">
-        <v>1.901802167711156</v>
+        <v>20.58183037888897</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.672745035245253</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.939481816535945</v>
+        <v>6.871501629475869</v>
       </c>
       <c r="K12">
-        <v>63.24469188377957</v>
+        <v>23.64193934618265</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.33655539700388</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>50.8658613425057</v>
+        <v>12.61577502682087</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.061073986173747</v>
+        <v>8.977562574206363</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.022556572923315</v>
+        <v>10.39121334086115</v>
       </c>
       <c r="E13">
-        <v>10.15004820788319</v>
+        <v>13.901174870654</v>
       </c>
       <c r="F13">
-        <v>67.75043306272208</v>
+        <v>20.89626327254257</v>
       </c>
       <c r="G13">
-        <v>1.903312175178539</v>
+        <v>20.55254681701406</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.676100206317714</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.923019557315179</v>
+        <v>6.863110875201428</v>
       </c>
       <c r="K13">
-        <v>63.03763349576791</v>
+        <v>23.58442005882423</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.34122861102933</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>50.68036913165356</v>
+        <v>12.61343633306855</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.979103666771426</v>
+        <v>8.897323883048925</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.002160663698485</v>
+        <v>10.31432526105495</v>
       </c>
       <c r="E14">
-        <v>10.07545790556672</v>
+        <v>13.80154583953024</v>
       </c>
       <c r="F14">
-        <v>66.96600962421051</v>
+        <v>20.80954340176563</v>
       </c>
       <c r="G14">
-        <v>1.908208820794872</v>
+        <v>20.45806052576901</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.687286073576116</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.869767200162056</v>
+        <v>6.835793902953811</v>
       </c>
       <c r="K14">
-        <v>62.36222292144787</v>
+        <v>23.39591518527288</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.35653925972146</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>50.07731030420702</v>
+        <v>12.60640868877437</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.928598737676541</v>
+        <v>8.847859923419762</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.98981269824722</v>
+        <v>10.267022857325</v>
       </c>
       <c r="E15">
-        <v>10.03002084738177</v>
+        <v>13.74032052349133</v>
       </c>
       <c r="F15">
-        <v>66.48736451663001</v>
+        <v>20.75685241796223</v>
       </c>
       <c r="G15">
-        <v>1.9111878290963</v>
+        <v>20.40096313128286</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.694323305655555</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.837472638467704</v>
+        <v>6.819097966775097</v>
       </c>
       <c r="K15">
-        <v>61.94832248606312</v>
+        <v>23.27974190716034</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.36597383509902</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>49.70926429374418</v>
+        <v>12.60256079930027</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.634588740836421</v>
+        <v>8.559546756708075</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.921036344168842</v>
+        <v>9.992821112470191</v>
       </c>
       <c r="E16">
-        <v>9.773133463243882</v>
+        <v>13.38645193620421</v>
       </c>
       <c r="F16">
-        <v>63.76811623428369</v>
+        <v>20.46145365531217</v>
       </c>
       <c r="G16">
-        <v>1.927987339837946</v>
+        <v>20.08564842812311</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.737419038127625</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.656998494211082</v>
+        <v>6.723992646031722</v>
       </c>
       <c r="K16">
-        <v>59.57052825725483</v>
+        <v>22.60313552306488</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.42098916879012</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>47.61724815666973</v>
+        <v>12.58735267246544</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.450076016044926</v>
+        <v>8.382604592549809</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.880385000059149</v>
+        <v>9.821849777986113</v>
       </c>
       <c r="E17">
-        <v>9.618314492711095</v>
+        <v>13.1667366415045</v>
       </c>
       <c r="F17">
-        <v>62.11677043573219</v>
+        <v>20.28608066372503</v>
       </c>
       <c r="G17">
-        <v>1.938089030548662</v>
+        <v>19.90276638072787</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.766246170008912</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.55002268737911</v>
+        <v>6.666173840444853</v>
       </c>
       <c r="K17">
-        <v>58.10369564191858</v>
+        <v>22.17836480597271</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.45566535235359</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>46.34575584351621</v>
+        <v>12.58395533670577</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.342405048102489</v>
+        <v>8.29584187869812</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.857488882522806</v>
+        <v>9.722514050156104</v>
       </c>
       <c r="E18">
-        <v>9.530167173833391</v>
+        <v>13.03942160411084</v>
       </c>
       <c r="F18">
-        <v>61.17164450225434</v>
+        <v>20.18735675671435</v>
       </c>
       <c r="G18">
-        <v>1.943837778259924</v>
+        <v>19.80142974301232</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.783673545595823</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.489741621797011</v>
+        <v>6.633116942728763</v>
       </c>
       <c r="K18">
-        <v>57.25600812584842</v>
+        <v>21.93048662301829</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.47597664833586</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>45.61761814757969</v>
+        <v>12.58411212728502</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.311574961437326</v>
+        <v>8.266320231589273</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.849813222860559</v>
+        <v>9.688710992575054</v>
       </c>
       <c r="E19">
-        <v>9.500466873347136</v>
+        <v>12.99615597517201</v>
       </c>
       <c r="F19">
-        <v>60.85232035598143</v>
+        <v>20.15429882025592</v>
       </c>
       <c r="G19">
-        <v>1.945774802234354</v>
+        <v>19.76777760901013</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.789716692136635</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.469535383694121</v>
+        <v>6.621959191898104</v>
       </c>
       <c r="K19">
-        <v>56.96822156877109</v>
+        <v>21.84594795838292</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.48291872498799</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>45.3715323660464</v>
+        <v>12.58452114289394</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.469877090914071</v>
+        <v>8.398593011709547</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.884660495175502</v>
+        <v>9.840153590813893</v>
       </c>
       <c r="E20">
-        <v>9.634699631399362</v>
+        <v>13.19022366568131</v>
       </c>
       <c r="F20">
-        <v>62.29204342793185</v>
+        <v>20.30452725314768</v>
       </c>
       <c r="G20">
-        <v>1.937020333368491</v>
+        <v>19.92183512555573</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.763089141798968</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.561278634520495</v>
+        <v>6.672308296752508</v>
       </c>
       <c r="K20">
-        <v>58.26023578935344</v>
+        <v>22.22395101319017</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.45193660173791</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>46.48075384632207</v>
+        <v>12.58409695470061</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.003241834099656</v>
+        <v>8.920957621141355</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.008120576210251</v>
+        <v>10.33695220107179</v>
       </c>
       <c r="E21">
-        <v>10.09731349666118</v>
+        <v>13.83085102071819</v>
       </c>
       <c r="F21">
-        <v>67.19601941612781</v>
+        <v>20.83492605545381</v>
       </c>
       <c r="G21">
-        <v>1.906774895432199</v>
+        <v>20.48565118342895</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.683961657184842</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.885340212238975</v>
+        <v>6.843809983976399</v>
       </c>
       <c r="K21">
-        <v>62.56063979241928</v>
+        <v>23.45143129513869</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.3520306326985</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>50.25415396595798</v>
+        <v>12.6083773166762</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.338534501249415</v>
+        <v>9.248742808942881</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.095078185176591</v>
+        <v>10.65244816414862</v>
       </c>
       <c r="E22">
-        <v>10.41058677269484</v>
+        <v>14.2406661556516</v>
       </c>
       <c r="F22">
-        <v>70.47905120834496</v>
+        <v>21.20070102570544</v>
       </c>
       <c r="G22">
-        <v>1.886135845785283</v>
+        <v>20.88890612575744</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.640467324475376</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.111284718682411</v>
+        <v>6.95754556767159</v>
       </c>
       <c r="K22">
-        <v>65.35977642404977</v>
+        <v>24.22194644905674</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.28933289469605</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>52.77717308340053</v>
+        <v>12.64450289032028</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.160773635818895</v>
+        <v>9.075082622151852</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.047978112316185</v>
+        <v>10.48491560923945</v>
       </c>
       <c r="E23">
-        <v>10.24221053250767</v>
+        <v>14.02277251347326</v>
       </c>
       <c r="F23">
-        <v>68.71753547623817</v>
+        <v>21.00373039447908</v>
       </c>
       <c r="G23">
-        <v>1.897250067426208</v>
+        <v>20.67048451456208</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.662894799873945</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.989218600070674</v>
+        <v>6.896697429372031</v>
       </c>
       <c r="K23">
-        <v>63.86545250310513</v>
+        <v>23.81360758521662</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.3226009200919</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>51.42369480741161</v>
+        <v>12.62329885963942</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.460929988854941</v>
+        <v>8.391367429497842</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.882726083573461</v>
+        <v>9.831881679005781</v>
       </c>
       <c r="E24">
-        <v>9.627289258705529</v>
+        <v>13.17960828397898</v>
       </c>
       <c r="F24">
-        <v>62.21278960627457</v>
+        <v>20.29618100832927</v>
       </c>
       <c r="G24">
-        <v>1.937503671482594</v>
+        <v>19.91320230136307</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.764513780757874</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.556186047825997</v>
+        <v>6.669534334835545</v>
       </c>
       <c r="K24">
-        <v>58.18947788755447</v>
+        <v>22.20335292553849</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.4536211942165</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>46.41971261646729</v>
+        <v>12.58402637347836</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.778619799531482</v>
+        <v>7.743437353076091</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.722584496341813</v>
+        <v>9.089645218384923</v>
       </c>
       <c r="E25">
-        <v>8.997908680869948</v>
+        <v>12.23462788519105</v>
       </c>
       <c r="F25">
-        <v>55.48055551806368</v>
+        <v>19.61489887246538</v>
       </c>
       <c r="G25">
-        <v>1.978655762958882</v>
+        <v>19.24295463515383</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.906156275064891</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.136146569161039</v>
+        <v>6.432191611837442</v>
       </c>
       <c r="K25">
-        <v>51.90772483143525</v>
+        <v>20.33040517122036</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.60902372798538</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>41.14032725877051</v>
+        <v>12.6214661962199</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.240851237870213</v>
+        <v>7.803613304306367</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.512954063467291</v>
+        <v>10.09061812575778</v>
       </c>
       <c r="E2">
-        <v>11.51198810356703</v>
+        <v>14.04781692612014</v>
       </c>
       <c r="F2">
-        <v>19.18273253216082</v>
+        <v>28.62160357906475</v>
       </c>
       <c r="G2">
-        <v>18.87028525310476</v>
+        <v>27.29186565023517</v>
       </c>
       <c r="H2">
-        <v>8.034694427021021</v>
+        <v>14.01401836301485</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.264723352316769</v>
+        <v>9.766914877609358</v>
       </c>
       <c r="K2">
-        <v>18.83499966164313</v>
+        <v>11.71492723955321</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.7095898521178</v>
+        <v>21.11886810691572</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.885984491906378</v>
+        <v>7.731792848869524</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.104982056889105</v>
+        <v>10.01612301753512</v>
       </c>
       <c r="E3">
-        <v>11.00801994934662</v>
+        <v>13.97569652429709</v>
       </c>
       <c r="F3">
-        <v>18.93219107313946</v>
+        <v>28.70745047824891</v>
       </c>
       <c r="G3">
-        <v>18.68901731939716</v>
+        <v>27.43222402868155</v>
       </c>
       <c r="H3">
-        <v>8.135437851778098</v>
+        <v>14.07503462071574</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.156126091744454</v>
+        <v>9.773389529311673</v>
       </c>
       <c r="K3">
-        <v>17.7498643426561</v>
+        <v>11.16787162906861</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.80301746236602</v>
+        <v>21.22558096903264</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.661783202397927</v>
+        <v>7.689193955303539</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.846770290760567</v>
+        <v>9.97167454347869</v>
       </c>
       <c r="E4">
-        <v>10.69262918711381</v>
+        <v>13.93406428223581</v>
       </c>
       <c r="F4">
-        <v>18.79874572553407</v>
+        <v>28.76823854570038</v>
       </c>
       <c r="G4">
-        <v>18.61109743350429</v>
+        <v>27.52912404557059</v>
       </c>
       <c r="H4">
-        <v>8.203567785000308</v>
+        <v>14.11505724493908</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.091977857878621</v>
+        <v>9.778935462884398</v>
       </c>
       <c r="K4">
-        <v>17.04875968702467</v>
+        <v>10.81725978402929</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.87567767866669</v>
+        <v>21.29639637224053</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.568961810123962</v>
+        <v>7.672230892039905</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.739740389668781</v>
+        <v>9.953901617963762</v>
       </c>
       <c r="E5">
-        <v>10.56279474496983</v>
+        <v>13.91777892088562</v>
       </c>
       <c r="F5">
-        <v>18.74940019707602</v>
+        <v>28.79503456085274</v>
       </c>
       <c r="G5">
-        <v>18.58742987127712</v>
+        <v>27.57128973777646</v>
       </c>
       <c r="H5">
-        <v>8.232845999604748</v>
+        <v>14.13201012922327</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.066490157007364</v>
+        <v>9.78159073811166</v>
       </c>
       <c r="K5">
-        <v>16.75440887700639</v>
+        <v>10.67083118880966</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.90893977641093</v>
+        <v>21.32658228888397</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.553465040755246</v>
+        <v>7.669438677005587</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.721863368770602</v>
+        <v>9.950971421344882</v>
       </c>
       <c r="E6">
-        <v>10.54116262497259</v>
+        <v>13.91511620965626</v>
       </c>
       <c r="F6">
-        <v>18.74150740438364</v>
+        <v>28.79960607753071</v>
       </c>
       <c r="G6">
-        <v>18.58397848608303</v>
+        <v>27.57845255628213</v>
       </c>
       <c r="H6">
-        <v>8.237797356851614</v>
+        <v>14.13486399961865</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.062297859155464</v>
+        <v>9.782055525635384</v>
       </c>
       <c r="K6">
-        <v>16.70501395342269</v>
+        <v>10.64630717457344</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.91467795881124</v>
+        <v>21.33167476267713</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.660537096121059</v>
+        <v>7.688963555732582</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.845333970479175</v>
+        <v>9.971433454311144</v>
       </c>
       <c r="E7">
-        <v>10.69088323505675</v>
+        <v>13.93384188092232</v>
       </c>
       <c r="F7">
-        <v>18.79805998606507</v>
+        <v>28.768591738873</v>
       </c>
       <c r="G7">
-        <v>18.61074594203389</v>
+        <v>27.52968188640797</v>
       </c>
       <c r="H7">
-        <v>8.20395658798434</v>
+        <v>14.11528327258385</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.091631455796333</v>
+        <v>9.778969672064056</v>
       </c>
       <c r="K7">
-        <v>17.0448247996356</v>
+        <v>10.81529916137417</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.87611172640412</v>
+        <v>21.29679809671204</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.119874778619743</v>
+        <v>7.778550291001308</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.373960306599065</v>
+        <v>10.0646734657479</v>
       </c>
       <c r="E8">
-        <v>11.33955985310769</v>
+        <v>14.02240834548409</v>
       </c>
       <c r="F8">
-        <v>19.09206487264475</v>
+        <v>28.64952309986419</v>
       </c>
       <c r="G8">
-        <v>18.80068336054411</v>
+        <v>27.33802613630555</v>
       </c>
       <c r="H8">
-        <v>8.068089745262693</v>
+        <v>14.03452577834771</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.226764194454466</v>
+        <v>9.768821628974006</v>
       </c>
       <c r="K8">
-        <v>18.46813122155679</v>
+        <v>11.52943953129202</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.73851121881426</v>
+        <v>21.15456229520595</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.965841689073329</v>
+        <v>7.965241798907524</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.344543517586839</v>
+        <v>10.25706891109554</v>
       </c>
       <c r="E9">
-        <v>12.55740252883269</v>
+        <v>14.21646649995549</v>
       </c>
       <c r="F9">
-        <v>19.83350774251099</v>
+        <v>28.48040719633528</v>
       </c>
       <c r="G9">
-        <v>19.4495230478964</v>
+        <v>27.04799375714536</v>
       </c>
       <c r="H9">
-        <v>7.854466718291856</v>
+        <v>13.89645972231422</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.511055774808691</v>
+        <v>9.761363350070907</v>
       </c>
       <c r="K9">
-        <v>20.97945986755575</v>
+        <v>12.80765303279181</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.59890399260714</v>
+        <v>20.91777097701611</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.580008424191355</v>
+        <v>8.107898146131973</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.01219377010119</v>
+        <v>10.40328149624158</v>
       </c>
       <c r="E10">
-        <v>13.4113936234309</v>
+        <v>14.370541785766</v>
       </c>
       <c r="F10">
-        <v>20.48175589600021</v>
+        <v>28.39576048838029</v>
       </c>
       <c r="G10">
-        <v>20.10704057114221</v>
+        <v>26.88820185823177</v>
       </c>
       <c r="H10">
-        <v>7.734246645057456</v>
+        <v>13.80739660943841</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.730616697688231</v>
+        <v>9.763438127051256</v>
       </c>
       <c r="K10">
-        <v>22.65112209740609</v>
+        <v>13.66632892709133</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.58803139219635</v>
+        <v>20.76966752771629</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.887883587080491</v>
+        <v>8.173723116741556</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.30529180245025</v>
+        <v>10.47064092665868</v>
       </c>
       <c r="E11">
-        <v>13.7898494887969</v>
+        <v>14.44291954667934</v>
       </c>
       <c r="F11">
-        <v>20.79944191845867</v>
+        <v>28.36591626293108</v>
       </c>
       <c r="G11">
-        <v>20.44709562818934</v>
+        <v>26.82727810359367</v>
       </c>
       <c r="H11">
-        <v>7.68862086498486</v>
+        <v>13.76956669467111</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.832598953564517</v>
+        <v>9.766013487925166</v>
       </c>
       <c r="K11">
-        <v>23.3737413325738</v>
+        <v>14.03857487337123</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.60564589368468</v>
+        <v>20.70794767982401</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.002040802919696</v>
+        <v>8.198760562942729</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.41470726946058</v>
+        <v>10.4962518168137</v>
       </c>
       <c r="E12">
-        <v>13.93164439944552</v>
+        <v>14.47063728343798</v>
       </c>
       <c r="F12">
-        <v>20.92302508093667</v>
+        <v>28.35586485607028</v>
       </c>
       <c r="G12">
-        <v>20.58183037888897</v>
+        <v>26.80591490353419</v>
       </c>
       <c r="H12">
-        <v>7.672745035245253</v>
+        <v>13.75562778711488</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.871501629475869</v>
+        <v>9.767222340087104</v>
       </c>
       <c r="K12">
-        <v>23.64193934618265</v>
+        <v>14.17683339706825</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.61577502682087</v>
+        <v>20.6853922684567</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.977562574206363</v>
+        <v>8.193363727559868</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.39121334086115</v>
+        <v>10.49073175129627</v>
       </c>
       <c r="E13">
-        <v>13.901174870654</v>
+        <v>14.46465430319749</v>
       </c>
       <c r="F13">
-        <v>20.89626327254257</v>
+        <v>28.35797395202797</v>
       </c>
       <c r="G13">
-        <v>20.55254681701406</v>
+        <v>26.81043968368989</v>
       </c>
       <c r="H13">
-        <v>7.676100206317714</v>
+        <v>13.75861258712494</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.863110875201428</v>
+        <v>9.766951619055046</v>
       </c>
       <c r="K13">
-        <v>23.58442005882423</v>
+        <v>14.14717802417483</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.61343633306855</v>
+        <v>20.6902136053159</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.897323883048925</v>
+        <v>8.175780868830492</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.31432526105495</v>
+        <v>10.47274598468244</v>
       </c>
       <c r="E14">
-        <v>13.80154583953024</v>
+        <v>14.44519380344394</v>
       </c>
       <c r="F14">
-        <v>20.80954340176563</v>
+        <v>28.36506425409635</v>
       </c>
       <c r="G14">
-        <v>20.45806052576901</v>
+        <v>26.8254862387815</v>
       </c>
       <c r="H14">
-        <v>7.687286073576116</v>
+        <v>13.76841218525258</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.835793902953811</v>
+        <v>9.766108264991789</v>
       </c>
       <c r="K14">
-        <v>23.39591518527288</v>
+        <v>14.05000396839982</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.60640868877437</v>
+        <v>20.70607564669801</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.847859923419762</v>
+        <v>8.165024635960151</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.267022857325</v>
+        <v>10.46174209313527</v>
       </c>
       <c r="E15">
-        <v>13.74032052349133</v>
+        <v>14.43331345871978</v>
       </c>
       <c r="F15">
-        <v>20.75685241796223</v>
+        <v>28.36957016779295</v>
       </c>
       <c r="G15">
-        <v>20.40096313128286</v>
+        <v>26.83492546903946</v>
       </c>
       <c r="H15">
-        <v>7.694323305655555</v>
+        <v>13.77446506022868</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.819097966775097</v>
+        <v>9.765622078697302</v>
       </c>
       <c r="K15">
-        <v>23.27974190716034</v>
+        <v>13.99012841981788</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.60256079930027</v>
+        <v>20.71589805280997</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.559546756708075</v>
+        <v>8.103613094616328</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.992821112470191</v>
+        <v>10.39889486358088</v>
       </c>
       <c r="E16">
-        <v>13.38645193620421</v>
+        <v>14.36585614465164</v>
       </c>
       <c r="F16">
-        <v>20.46145365531217</v>
+        <v>28.39788556907735</v>
       </c>
       <c r="G16">
-        <v>20.08564842812311</v>
+        <v>26.89242146729744</v>
       </c>
       <c r="H16">
-        <v>7.737419038127625</v>
+        <v>13.80992294533998</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.723992646031722</v>
+        <v>9.763302569747642</v>
       </c>
       <c r="K16">
-        <v>22.60313552306488</v>
+        <v>13.6416266247001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.58735267246544</v>
+        <v>20.7738151317138</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.382604592549809</v>
+        <v>8.066161065654015</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.821849777986113</v>
+        <v>10.36054389475085</v>
       </c>
       <c r="E17">
-        <v>13.1667366415045</v>
+        <v>14.3250458413061</v>
       </c>
       <c r="F17">
-        <v>20.28608066372503</v>
+        <v>28.41747801685904</v>
       </c>
       <c r="G17">
-        <v>19.90276638072787</v>
+        <v>26.93071822018828</v>
       </c>
       <c r="H17">
-        <v>7.766246170008912</v>
+        <v>13.83236320373452</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.666173840444853</v>
+        <v>9.762296834374196</v>
       </c>
       <c r="K17">
-        <v>22.17836480597271</v>
+        <v>13.42307976122626</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.58395533670577</v>
+        <v>20.81079587843396</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.29584187869812</v>
+        <v>8.044708537235183</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.722514050156104</v>
+        <v>10.33856622689877</v>
       </c>
       <c r="E18">
-        <v>13.03942160411084</v>
+        <v>14.30178939000284</v>
       </c>
       <c r="F18">
-        <v>20.18735675671435</v>
+        <v>28.42956216247499</v>
       </c>
       <c r="G18">
-        <v>19.80142974301232</v>
+        <v>26.95385214385107</v>
       </c>
       <c r="H18">
-        <v>7.783673545595823</v>
+        <v>13.84552298378247</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.633116942728763</v>
+        <v>9.7618719972082</v>
       </c>
       <c r="K18">
-        <v>21.93048662301829</v>
+        <v>13.29565119800494</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.58411212728502</v>
+        <v>20.8325981091631</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.266320231589273</v>
+        <v>8.03746104041422</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.688710992575054</v>
+        <v>10.33113940197382</v>
       </c>
       <c r="E19">
-        <v>12.99615597517201</v>
+        <v>14.29395292441214</v>
       </c>
       <c r="F19">
-        <v>20.15429882025592</v>
+        <v>28.43379349446639</v>
       </c>
       <c r="G19">
-        <v>19.76777760901013</v>
+        <v>26.96187447947921</v>
       </c>
       <c r="H19">
-        <v>7.789716692136635</v>
+        <v>13.85002205792683</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.621959191898104</v>
+        <v>9.761754569846657</v>
       </c>
       <c r="K19">
-        <v>21.84594795838292</v>
+        <v>13.25221165756736</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.58452114289394</v>
+        <v>20.84007121063339</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.398593011709547</v>
+        <v>8.070138863517187</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.840153590813893</v>
+        <v>10.36461819189848</v>
       </c>
       <c r="E20">
-        <v>13.19022366568131</v>
+        <v>14.32936789231466</v>
       </c>
       <c r="F20">
-        <v>20.30452725314768</v>
+        <v>28.41530797498643</v>
       </c>
       <c r="G20">
-        <v>19.92183512555573</v>
+        <v>26.9265268182318</v>
       </c>
       <c r="H20">
-        <v>7.763089141798968</v>
+        <v>13.82994824040711</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.672308296752508</v>
+        <v>9.762388002750711</v>
       </c>
       <c r="K20">
-        <v>22.22395101319017</v>
+        <v>13.44652358179299</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.58409695470061</v>
+        <v>20.80680414053784</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.920957621141355</v>
+        <v>8.180942550280253</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.33695220107179</v>
+        <v>10.47802618285424</v>
       </c>
       <c r="E21">
-        <v>13.83085102071819</v>
+        <v>14.45090157018152</v>
       </c>
       <c r="F21">
-        <v>20.83492605545381</v>
+        <v>28.36294770567375</v>
       </c>
       <c r="G21">
-        <v>20.48565118342895</v>
+        <v>26.82102024741883</v>
       </c>
       <c r="H21">
-        <v>7.683961657184842</v>
+        <v>13.76552331471953</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.843809983976399</v>
+        <v>9.766349646722073</v>
       </c>
       <c r="K21">
-        <v>23.45143129513869</v>
+        <v>14.0786201352673</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.6083773166762</v>
+        <v>20.70139439052302</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.248742808942881</v>
+        <v>8.253995437000306</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.65244816414862</v>
+        <v>10.55273860826129</v>
       </c>
       <c r="E22">
-        <v>14.2406661556516</v>
+        <v>14.53212764809217</v>
       </c>
       <c r="F22">
-        <v>21.20070102570544</v>
+        <v>28.33601447030923</v>
       </c>
       <c r="G22">
-        <v>20.88890612575744</v>
+        <v>26.76202354435456</v>
       </c>
       <c r="H22">
-        <v>7.640467324475376</v>
+        <v>13.72567064844302</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.95754556767159</v>
+        <v>9.770299969261929</v>
       </c>
       <c r="K22">
-        <v>24.22194644905674</v>
+        <v>14.47595599153717</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.64450289032028</v>
+        <v>20.63726422864131</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.075082622151852</v>
+        <v>8.214955011215586</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.48491560923945</v>
+        <v>10.51281494819099</v>
       </c>
       <c r="E23">
-        <v>14.02277251347326</v>
+        <v>14.48861782231316</v>
       </c>
       <c r="F23">
-        <v>21.00373039447908</v>
+        <v>28.34972119648464</v>
       </c>
       <c r="G23">
-        <v>20.67048451456208</v>
+        <v>26.79259521472386</v>
       </c>
       <c r="H23">
-        <v>7.662894799873945</v>
+        <v>13.74673453092743</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.896697429372031</v>
+        <v>9.768067422675683</v>
       </c>
       <c r="K23">
-        <v>23.81360758521662</v>
+        <v>14.26535133842589</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.62329885963942</v>
+        <v>20.67105484861189</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.391367429497842</v>
+        <v>8.068340252859157</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.831881679005781</v>
+        <v>10.36277598018735</v>
       </c>
       <c r="E24">
-        <v>13.17960828397898</v>
+        <v>14.32741325014812</v>
       </c>
       <c r="F24">
-        <v>20.29618100832927</v>
+        <v>28.41628649642524</v>
       </c>
       <c r="G24">
-        <v>19.91320230136307</v>
+        <v>26.92841827405054</v>
       </c>
       <c r="H24">
-        <v>7.764513780757874</v>
+        <v>13.83103923988897</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.669534334835545</v>
+        <v>9.76234630771266</v>
       </c>
       <c r="K24">
-        <v>22.20335292553849</v>
+        <v>13.435930179594</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.58402637347836</v>
+        <v>20.8086071187396</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.743437353076091</v>
+        <v>7.913682216320778</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.089645218384923</v>
+        <v>10.2040962725142</v>
       </c>
       <c r="E25">
-        <v>12.23462788519105</v>
+        <v>14.16187899771909</v>
       </c>
       <c r="F25">
-        <v>19.61489887246538</v>
+        <v>28.51922639455005</v>
       </c>
       <c r="G25">
-        <v>19.24295463515383</v>
+        <v>27.11716489402914</v>
       </c>
       <c r="H25">
-        <v>7.906156275064891</v>
+        <v>13.93163726846015</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.432191611837442</v>
+        <v>9.762051694334531</v>
       </c>
       <c r="K25">
-        <v>20.33040517122036</v>
+        <v>12.47562491175969</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.6214661962199</v>
+        <v>20.97729999502784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.803613304306367</v>
+        <v>7.240851237870211</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.09061812575778</v>
+        <v>8.512954063467239</v>
       </c>
       <c r="E2">
-        <v>14.04781692612014</v>
+        <v>11.51198810356708</v>
       </c>
       <c r="F2">
-        <v>28.62160357906475</v>
+        <v>19.18273253216077</v>
       </c>
       <c r="G2">
-        <v>27.29186565023517</v>
+        <v>18.87028525310465</v>
       </c>
       <c r="H2">
-        <v>14.01401836301485</v>
+        <v>8.034694427021021</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.766914877609358</v>
+        <v>6.264723352316816</v>
       </c>
       <c r="K2">
-        <v>11.71492723955321</v>
+        <v>18.83499966164311</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.11886810691572</v>
+        <v>12.70958985211774</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.731792848869524</v>
+        <v>6.885984491906334</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.01612301753512</v>
+        <v>8.104982056889083</v>
       </c>
       <c r="E3">
-        <v>13.97569652429709</v>
+        <v>11.0080199493466</v>
       </c>
       <c r="F3">
-        <v>28.70745047824891</v>
+        <v>18.93219107313923</v>
       </c>
       <c r="G3">
-        <v>27.43222402868155</v>
+        <v>18.68901731939695</v>
       </c>
       <c r="H3">
-        <v>14.07503462071574</v>
+        <v>8.135437851778041</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.773389529311673</v>
+        <v>6.156126091744456</v>
       </c>
       <c r="K3">
-        <v>11.16787162906861</v>
+        <v>17.74986434265614</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.22558096903264</v>
+        <v>12.80301746236584</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.689193955303539</v>
+        <v>6.661783202397889</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.97167454347869</v>
+        <v>7.846770290760634</v>
       </c>
       <c r="E4">
-        <v>13.93406428223581</v>
+        <v>10.69262918711381</v>
       </c>
       <c r="F4">
-        <v>28.76823854570038</v>
+        <v>18.79874572553389</v>
       </c>
       <c r="G4">
-        <v>27.52912404557059</v>
+        <v>18.61109743350421</v>
       </c>
       <c r="H4">
-        <v>14.11505724493908</v>
+        <v>8.203567785000185</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.778935462884398</v>
+        <v>6.091977857878578</v>
       </c>
       <c r="K4">
-        <v>10.81725978402929</v>
+        <v>17.04875968702474</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.29639637224053</v>
+        <v>12.8756776786665</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.672230892039905</v>
+        <v>6.568961810124066</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.953901617963762</v>
+        <v>7.739740389668824</v>
       </c>
       <c r="E5">
-        <v>13.91777892088562</v>
+        <v>10.56279474496985</v>
       </c>
       <c r="F5">
-        <v>28.79503456085274</v>
+        <v>18.74940019707595</v>
       </c>
       <c r="G5">
-        <v>27.57128973777646</v>
+        <v>18.58742987127703</v>
       </c>
       <c r="H5">
-        <v>14.13201012922327</v>
+        <v>8.23284599960469</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.78159073811166</v>
+        <v>6.066490157007371</v>
       </c>
       <c r="K5">
-        <v>10.67083118880966</v>
+        <v>16.75440887700649</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.32658228888397</v>
+        <v>12.90893977641085</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.669438677005587</v>
+        <v>6.553465040755192</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.950971421344882</v>
+        <v>7.721863368770608</v>
       </c>
       <c r="E6">
-        <v>13.91511620965626</v>
+        <v>10.54116262497253</v>
       </c>
       <c r="F6">
-        <v>28.79960607753071</v>
+        <v>18.74150740438352</v>
       </c>
       <c r="G6">
-        <v>27.57845255628213</v>
+        <v>18.58397848608289</v>
       </c>
       <c r="H6">
-        <v>14.13486399961865</v>
+        <v>8.237797356851617</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.782055525635384</v>
+        <v>6.062297859155465</v>
       </c>
       <c r="K6">
-        <v>10.64630717457344</v>
+        <v>16.70501395342274</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.33167476267713</v>
+        <v>12.91467795881113</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.688963555732582</v>
+        <v>6.660537096121129</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.971433454311144</v>
+        <v>7.845333970479221</v>
       </c>
       <c r="E7">
-        <v>13.93384188092232</v>
+        <v>10.69088323505679</v>
       </c>
       <c r="F7">
-        <v>28.768591738873</v>
+        <v>18.79805998606502</v>
       </c>
       <c r="G7">
-        <v>27.52968188640797</v>
+        <v>18.61074594203374</v>
       </c>
       <c r="H7">
-        <v>14.11528327258385</v>
+        <v>8.203956587984337</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.778969672064056</v>
+        <v>6.091631455796385</v>
       </c>
       <c r="K7">
-        <v>10.81529916137417</v>
+        <v>17.04482479963557</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.29679809671204</v>
+        <v>12.87611172640408</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.778550291001308</v>
+        <v>7.119874778619736</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.0646734657479</v>
+        <v>8.373960306599029</v>
       </c>
       <c r="E8">
-        <v>14.02240834548409</v>
+        <v>11.3395598531077</v>
       </c>
       <c r="F8">
-        <v>28.64952309986419</v>
+        <v>19.09206487264471</v>
       </c>
       <c r="G8">
-        <v>27.33802613630555</v>
+        <v>18.800683360544</v>
       </c>
       <c r="H8">
-        <v>14.03452577834771</v>
+        <v>8.068089745262698</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.768821628974006</v>
+        <v>6.226764194454446</v>
       </c>
       <c r="K8">
-        <v>11.52943953129202</v>
+        <v>18.46813122155681</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.15456229520595</v>
+        <v>12.73851121881423</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.965241798907524</v>
+        <v>7.965841689073379</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.25706891109554</v>
+        <v>9.344543517586875</v>
       </c>
       <c r="E9">
-        <v>14.21646649995549</v>
+        <v>12.55740252883268</v>
       </c>
       <c r="F9">
-        <v>28.48040719633528</v>
+        <v>19.833507742511</v>
       </c>
       <c r="G9">
-        <v>27.04799375714536</v>
+        <v>19.44952304789636</v>
       </c>
       <c r="H9">
-        <v>13.89645972231422</v>
+        <v>7.854466718291856</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.761363350070907</v>
+        <v>6.511055774808691</v>
       </c>
       <c r="K9">
-        <v>12.80765303279181</v>
+        <v>20.97945986755578</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.91777097701611</v>
+        <v>12.59890399260711</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.107898146131973</v>
+        <v>8.580008424191332</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.40328149624158</v>
+        <v>10.01219377010111</v>
       </c>
       <c r="E10">
-        <v>14.370541785766</v>
+        <v>13.41139362343084</v>
       </c>
       <c r="F10">
-        <v>28.39576048838029</v>
+        <v>20.48175589600007</v>
       </c>
       <c r="G10">
-        <v>26.88820185823177</v>
+        <v>20.1070405711421</v>
       </c>
       <c r="H10">
-        <v>13.80739660943841</v>
+        <v>7.734246645057445</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.763438127051256</v>
+        <v>6.730616697688176</v>
       </c>
       <c r="K10">
-        <v>13.66632892709133</v>
+        <v>22.65112209740614</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.76966752771629</v>
+        <v>12.58803139219625</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.173723116741556</v>
+        <v>8.887883587080548</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.47064092665868</v>
+        <v>10.30529180245027</v>
       </c>
       <c r="E11">
-        <v>14.44291954667934</v>
+        <v>13.78984948879687</v>
       </c>
       <c r="F11">
-        <v>28.36591626293108</v>
+        <v>20.79944191845869</v>
       </c>
       <c r="G11">
-        <v>26.82727810359367</v>
+        <v>20.44709562818931</v>
       </c>
       <c r="H11">
-        <v>13.76956669467111</v>
+        <v>7.688620864984854</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.766013487925166</v>
+        <v>6.832598953564466</v>
       </c>
       <c r="K11">
-        <v>14.03857487337123</v>
+        <v>23.37374133257383</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.70794767982401</v>
+        <v>12.60564589368466</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.198760562942729</v>
+        <v>9.002040802919728</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.4962518168137</v>
+        <v>10.41470726946056</v>
       </c>
       <c r="E12">
-        <v>14.47063728343798</v>
+        <v>13.93164439944552</v>
       </c>
       <c r="F12">
-        <v>28.35586485607028</v>
+        <v>20.9230250809366</v>
       </c>
       <c r="G12">
-        <v>26.80591490353419</v>
+        <v>20.58183037888891</v>
       </c>
       <c r="H12">
-        <v>13.75562778711488</v>
+        <v>7.672745035245166</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.767222340087104</v>
+        <v>6.871501629475846</v>
       </c>
       <c r="K12">
-        <v>14.17683339706825</v>
+        <v>23.6419393461827</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.6853922684567</v>
+        <v>12.61577502682083</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.193363727559868</v>
+        <v>8.977562574206347</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.49073175129627</v>
+        <v>10.39121334086113</v>
       </c>
       <c r="E13">
-        <v>14.46465430319749</v>
+        <v>13.90117487065398</v>
       </c>
       <c r="F13">
-        <v>28.35797395202797</v>
+        <v>20.89626327254248</v>
       </c>
       <c r="G13">
-        <v>26.81043968368989</v>
+        <v>20.55254681701403</v>
       </c>
       <c r="H13">
-        <v>13.75861258712494</v>
+        <v>7.676100206317605</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.766951619055046</v>
+        <v>6.863110875201405</v>
       </c>
       <c r="K13">
-        <v>14.14717802417483</v>
+        <v>23.58442005882425</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.6902136053159</v>
+        <v>12.61343633306848</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.175780868830492</v>
+        <v>8.897323883048914</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.47274598468244</v>
+        <v>10.31432526105497</v>
       </c>
       <c r="E14">
-        <v>14.44519380344394</v>
+        <v>13.80154583953024</v>
       </c>
       <c r="F14">
-        <v>28.36506425409635</v>
+        <v>20.80954340176567</v>
       </c>
       <c r="G14">
-        <v>26.8254862387815</v>
+        <v>20.45806052576898</v>
       </c>
       <c r="H14">
-        <v>13.76841218525258</v>
+        <v>7.687286073576126</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.766108264991789</v>
+        <v>6.83579390295381</v>
       </c>
       <c r="K14">
-        <v>14.05000396839982</v>
+        <v>23.39591518527287</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.70607564669801</v>
+        <v>12.60640868877437</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.165024635960151</v>
+        <v>8.847859923419715</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.46174209313527</v>
+        <v>10.26702285732498</v>
       </c>
       <c r="E15">
-        <v>14.43331345871978</v>
+        <v>13.74032052349135</v>
       </c>
       <c r="F15">
-        <v>28.36957016779295</v>
+        <v>20.7568524179621</v>
       </c>
       <c r="G15">
-        <v>26.83492546903946</v>
+        <v>20.40096313128277</v>
       </c>
       <c r="H15">
-        <v>13.77446506022868</v>
+        <v>7.69432330565551</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.765622078697302</v>
+        <v>6.819097966775159</v>
       </c>
       <c r="K15">
-        <v>13.99012841981788</v>
+        <v>23.2797419071604</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.71589805280997</v>
+        <v>12.60256079930017</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.103613094616328</v>
+        <v>8.559546756708091</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.39889486358088</v>
+        <v>9.992821112470192</v>
       </c>
       <c r="E16">
-        <v>14.36585614465164</v>
+        <v>13.38645193620424</v>
       </c>
       <c r="F16">
-        <v>28.39788556907735</v>
+        <v>20.46145365531217</v>
       </c>
       <c r="G16">
-        <v>26.89242146729744</v>
+        <v>20.08564842812303</v>
       </c>
       <c r="H16">
-        <v>13.80992294533998</v>
+        <v>7.737419038127633</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.763302569747642</v>
+        <v>6.723992646031738</v>
       </c>
       <c r="K16">
-        <v>13.6416266247001</v>
+        <v>22.60313552306485</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.7738151317138</v>
+        <v>12.5873526724654</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.066161065654015</v>
+        <v>8.38260459254982</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.36054389475085</v>
+        <v>9.82184977798615</v>
       </c>
       <c r="E17">
-        <v>14.3250458413061</v>
+        <v>13.16673664150453</v>
       </c>
       <c r="F17">
-        <v>28.41747801685904</v>
+        <v>20.28608066372505</v>
       </c>
       <c r="G17">
-        <v>26.93071822018828</v>
+        <v>19.90276638072785</v>
       </c>
       <c r="H17">
-        <v>13.83236320373452</v>
+        <v>7.766246170008907</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.762296834374196</v>
+        <v>6.666173840444888</v>
       </c>
       <c r="K17">
-        <v>13.42307976122626</v>
+        <v>22.17836480597271</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.81079587843396</v>
+        <v>12.58395533670573</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.044708537235183</v>
+        <v>8.295841878698088</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.33856622689877</v>
+        <v>9.722514050156127</v>
       </c>
       <c r="E18">
-        <v>14.30178939000284</v>
+        <v>13.0394216041109</v>
       </c>
       <c r="F18">
-        <v>28.42956216247499</v>
+        <v>20.18735675671431</v>
       </c>
       <c r="G18">
-        <v>26.95385214385107</v>
+        <v>19.8014297430123</v>
       </c>
       <c r="H18">
-        <v>13.84552298378247</v>
+        <v>7.783673545595766</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.7618719972082</v>
+        <v>6.633116942728876</v>
       </c>
       <c r="K18">
-        <v>13.29565119800494</v>
+        <v>21.93048662301832</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.8325981091631</v>
+        <v>12.58411212728496</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.03746104041422</v>
+        <v>8.266320231589273</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.33113940197382</v>
+        <v>9.688710992575107</v>
       </c>
       <c r="E19">
-        <v>14.29395292441214</v>
+        <v>12.99615597517205</v>
       </c>
       <c r="F19">
-        <v>28.43379349446639</v>
+        <v>20.15429882025573</v>
       </c>
       <c r="G19">
-        <v>26.96187447947921</v>
+        <v>19.76777760900989</v>
       </c>
       <c r="H19">
-        <v>13.85002205792683</v>
+        <v>7.789716692136514</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.761754569846657</v>
+        <v>6.621959191898119</v>
       </c>
       <c r="K19">
-        <v>13.25221165756736</v>
+        <v>21.845947958383</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.84007121063339</v>
+        <v>12.58452114289374</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.070138863517187</v>
+        <v>8.398593011709602</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.36461819189848</v>
+        <v>9.840153590813868</v>
       </c>
       <c r="E20">
-        <v>14.32936789231466</v>
+        <v>13.1902236656813</v>
       </c>
       <c r="F20">
-        <v>28.41530797498643</v>
+        <v>20.30452725314759</v>
       </c>
       <c r="G20">
-        <v>26.9265268182318</v>
+        <v>19.92183512555567</v>
       </c>
       <c r="H20">
-        <v>13.82994824040711</v>
+        <v>7.763089141798858</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.762388002750711</v>
+        <v>6.672308296752521</v>
       </c>
       <c r="K20">
-        <v>13.44652358179299</v>
+        <v>22.22395101319021</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.80680414053784</v>
+        <v>12.58409695470054</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.180942550280253</v>
+        <v>8.920957621141346</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.47802618285424</v>
+        <v>10.33695220107177</v>
       </c>
       <c r="E21">
-        <v>14.45090157018152</v>
+        <v>13.83085102071819</v>
       </c>
       <c r="F21">
-        <v>28.36294770567375</v>
+        <v>20.83492605545375</v>
       </c>
       <c r="G21">
-        <v>26.82102024741883</v>
+        <v>20.48565118342886</v>
       </c>
       <c r="H21">
-        <v>13.76552331471953</v>
+        <v>7.683961657184833</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.766349646722073</v>
+        <v>6.843809983976383</v>
       </c>
       <c r="K21">
-        <v>14.0786201352673</v>
+        <v>23.45143129513873</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.70139439052302</v>
+        <v>12.60837731667613</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.253995437000306</v>
+        <v>9.248742808942902</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.55273860826129</v>
+        <v>10.65244816414863</v>
       </c>
       <c r="E22">
-        <v>14.53212764809217</v>
+        <v>14.24066615565163</v>
       </c>
       <c r="F22">
-        <v>28.33601447030923</v>
+        <v>21.20070102570543</v>
       </c>
       <c r="G22">
-        <v>26.76202354435456</v>
+        <v>20.88890612575736</v>
       </c>
       <c r="H22">
-        <v>13.72567064844302</v>
+        <v>7.640467324475381</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.770299969261929</v>
+        <v>6.957545567671604</v>
       </c>
       <c r="K22">
-        <v>14.47595599153717</v>
+        <v>24.22194644905677</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.63726422864131</v>
+        <v>12.6445028903202</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.214955011215586</v>
+        <v>9.075082622151884</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.51281494819099</v>
+        <v>10.48491560923945</v>
       </c>
       <c r="E23">
-        <v>14.48861782231316</v>
+        <v>14.02277251347329</v>
       </c>
       <c r="F23">
-        <v>28.34972119648464</v>
+        <v>21.00373039447896</v>
       </c>
       <c r="G23">
-        <v>26.79259521472386</v>
+        <v>20.67048451456197</v>
       </c>
       <c r="H23">
-        <v>13.74673453092743</v>
+        <v>7.662894799873836</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.768067422675683</v>
+        <v>6.896697429372074</v>
       </c>
       <c r="K23">
-        <v>14.26535133842589</v>
+        <v>23.81360758521663</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.67105484861189</v>
+        <v>12.62329885963928</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.068340252859157</v>
+        <v>8.391367429497912</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.36277598018735</v>
+        <v>9.831881679005782</v>
       </c>
       <c r="E24">
-        <v>14.32741325014812</v>
+        <v>13.17960828397894</v>
       </c>
       <c r="F24">
-        <v>28.41628649642524</v>
+        <v>20.29618100832918</v>
       </c>
       <c r="G24">
-        <v>26.92841827405054</v>
+        <v>19.91320230136298</v>
       </c>
       <c r="H24">
-        <v>13.83103923988897</v>
+        <v>7.76451378075783</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.76234630771266</v>
+        <v>6.669534334835467</v>
       </c>
       <c r="K24">
-        <v>13.435930179594</v>
+        <v>22.20335292553848</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.8086071187396</v>
+        <v>12.58402637347825</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.913682216320778</v>
+        <v>7.743437353076112</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.2040962725142</v>
+        <v>9.089645218384993</v>
       </c>
       <c r="E25">
-        <v>14.16187899771909</v>
+        <v>12.23462788519109</v>
       </c>
       <c r="F25">
-        <v>28.51922639455005</v>
+        <v>19.6148988724652</v>
       </c>
       <c r="G25">
-        <v>27.11716489402914</v>
+        <v>19.24295463515347</v>
       </c>
       <c r="H25">
-        <v>13.93163726846015</v>
+        <v>7.906156275064828</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.762051694334531</v>
+        <v>6.432191611837426</v>
       </c>
       <c r="K25">
-        <v>12.47562491175969</v>
+        <v>20.33040517122042</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.97729999502784</v>
+        <v>12.62146619621969</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.240851237870211</v>
+        <v>7.110045113831132</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.512954063467239</v>
+        <v>8.665492781637814</v>
       </c>
       <c r="E2">
-        <v>11.51198810356708</v>
+        <v>12.7066152617093</v>
       </c>
       <c r="F2">
-        <v>19.18273253216077</v>
+        <v>21.6246687502574</v>
       </c>
       <c r="G2">
-        <v>18.87028525310465</v>
+        <v>22.30231447018915</v>
       </c>
       <c r="H2">
-        <v>8.034694427021021</v>
+        <v>2.051738173207581</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.214689833040694</v>
       </c>
       <c r="J2">
-        <v>6.264723352316816</v>
+        <v>8.692403749409316</v>
       </c>
       <c r="K2">
-        <v>18.83499966164311</v>
+        <v>13.35267038248535</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.41793634702847</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.65158648926174</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.70958985211774</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.55398561033769</v>
+      </c>
+      <c r="Q2">
+        <v>14.25537943960527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.885984491906334</v>
+        <v>6.713790725713192</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.104982056889083</v>
+        <v>8.284060510637691</v>
       </c>
       <c r="E3">
-        <v>11.0080199493466</v>
+        <v>12.16347872982289</v>
       </c>
       <c r="F3">
-        <v>18.93219107313923</v>
+        <v>21.08586197114197</v>
       </c>
       <c r="G3">
-        <v>18.68901731939695</v>
+        <v>21.67349998401234</v>
       </c>
       <c r="H3">
-        <v>8.135437851778041</v>
+        <v>1.844155972499572</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.292621275004886</v>
       </c>
       <c r="J3">
-        <v>6.156126091744456</v>
+        <v>8.67472702837081</v>
       </c>
       <c r="K3">
-        <v>17.74986434265614</v>
+        <v>13.53510600579839</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.221318377459435</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.74167684884753</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.80301746236584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.62706195021786</v>
+      </c>
+      <c r="Q3">
+        <v>14.10026742071451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.661783202397889</v>
+        <v>6.453076186314077</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.846770290760634</v>
+        <v>8.041718661442754</v>
       </c>
       <c r="E4">
-        <v>10.69262918711381</v>
+        <v>11.81741301289173</v>
       </c>
       <c r="F4">
-        <v>18.79874572553389</v>
+        <v>20.75611646829186</v>
       </c>
       <c r="G4">
-        <v>18.61109743350421</v>
+        <v>21.29070686755898</v>
       </c>
       <c r="H4">
-        <v>8.203567785000185</v>
+        <v>1.711844805218723</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.34312402341408</v>
       </c>
       <c r="J4">
-        <v>6.091977857878578</v>
+        <v>8.666999818750289</v>
       </c>
       <c r="K4">
-        <v>17.04875968702474</v>
+        <v>13.6500804916485</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.097200640546862</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.15473259631618</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.8756776786665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.67457269597249</v>
+      </c>
+      <c r="Q4">
+        <v>14.01068149380627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.568961810124066</v>
+        <v>6.329761027532434</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.739740389668824</v>
+        <v>7.941860463464239</v>
       </c>
       <c r="E5">
-        <v>10.56279474496985</v>
+        <v>11.67369724196572</v>
       </c>
       <c r="F5">
-        <v>18.74940019707595</v>
+        <v>20.618748393827</v>
       </c>
       <c r="G5">
-        <v>18.58742987127703</v>
+        <v>21.12947742319341</v>
       </c>
       <c r="H5">
-        <v>8.23284599960469</v>
+        <v>1.65665371274752</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.36725027702142</v>
       </c>
       <c r="J5">
-        <v>6.066490157007371</v>
+        <v>8.663573678928921</v>
       </c>
       <c r="K5">
-        <v>16.75440887700649</v>
+        <v>13.69654342334076</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.045710393269777</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.91410096177868</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.90893977641085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.69535733103026</v>
+      </c>
+      <c r="Q5">
+        <v>13.97297924215171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.553465040755192</v>
+        <v>6.293424581489622</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.721863368770608</v>
+        <v>7.926190809521001</v>
       </c>
       <c r="E6">
-        <v>10.54116262497253</v>
+        <v>11.65007627811793</v>
       </c>
       <c r="F6">
-        <v>18.74150740438352</v>
+        <v>20.59178416287652</v>
       </c>
       <c r="G6">
-        <v>18.58397848608289</v>
+        <v>21.09511863622685</v>
       </c>
       <c r="H6">
-        <v>8.237797356851617</v>
+        <v>1.647369133930324</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.374975641677162</v>
       </c>
       <c r="J6">
-        <v>6.062297859155465</v>
+        <v>8.661771541809623</v>
       </c>
       <c r="K6">
-        <v>16.70501395342274</v>
+        <v>13.70294506309731</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.036997120294323</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.88054098889208</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.91467795881113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.69980088924881</v>
+      </c>
+      <c r="Q6">
+        <v>13.96361104073572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.660537096121129</v>
+        <v>6.409678218765073</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.845333970479221</v>
+        <v>8.043133991624902</v>
       </c>
       <c r="E7">
-        <v>10.69088323505679</v>
+        <v>11.81662400194462</v>
       </c>
       <c r="F7">
-        <v>18.79805998606502</v>
+        <v>20.74295114479851</v>
       </c>
       <c r="G7">
-        <v>18.61074594203374</v>
+        <v>21.267858422754</v>
       </c>
       <c r="H7">
-        <v>8.203956587984337</v>
+        <v>1.710986482604573</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.353142138123264</v>
       </c>
       <c r="J7">
-        <v>6.091631455796385</v>
+        <v>8.663471816336207</v>
       </c>
       <c r="K7">
-        <v>17.04482479963557</v>
+        <v>13.64707837004978</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.096200298436855</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.16975825137456</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.87611172640408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.67754229830025</v>
+      </c>
+      <c r="Q7">
+        <v>14.00149976448316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.119874778619736</v>
+        <v>6.925541771525741</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.373960306599029</v>
+        <v>8.539164992433243</v>
       </c>
       <c r="E8">
-        <v>11.3395598531077</v>
+        <v>12.52345595880452</v>
       </c>
       <c r="F8">
-        <v>19.09206487264471</v>
+        <v>21.42433875602459</v>
       </c>
       <c r="G8">
-        <v>18.800683360544</v>
+        <v>22.05867888437217</v>
       </c>
       <c r="H8">
-        <v>8.068089745262698</v>
+        <v>1.981022275801655</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.25316152315598</v>
       </c>
       <c r="J8">
-        <v>6.226764194454446</v>
+        <v>8.68111270049177</v>
       </c>
       <c r="K8">
-        <v>18.46813122155681</v>
+        <v>13.41067919369522</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.350481695854782</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.36628158484071</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.73851121881423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.58258701222073</v>
+      </c>
+      <c r="Q8">
+        <v>14.18950355232568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.965841689073379</v>
+        <v>7.864368479289982</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.344543517586875</v>
+        <v>9.438791822486971</v>
       </c>
       <c r="E9">
-        <v>12.55740252883268</v>
+        <v>13.80320387088056</v>
       </c>
       <c r="F9">
-        <v>19.833507742511</v>
+        <v>22.78191254854311</v>
       </c>
       <c r="G9">
-        <v>19.44952304789636</v>
+        <v>23.66274499304815</v>
       </c>
       <c r="H9">
-        <v>7.854466718291856</v>
+        <v>2.472939744591379</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.062307281787221</v>
       </c>
       <c r="J9">
-        <v>6.511055774808691</v>
+        <v>8.747416145743033</v>
       </c>
       <c r="K9">
-        <v>20.97945986755578</v>
+        <v>12.97583198430127</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.821272978787556</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.45626719092536</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.59890399260711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.41240162152026</v>
+      </c>
+      <c r="Q9">
+        <v>14.61828997172238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.580008424191332</v>
+        <v>8.458115814038981</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.01219377010111</v>
+        <v>9.956995961529074</v>
       </c>
       <c r="E10">
-        <v>13.41139362343084</v>
+        <v>14.44709808647161</v>
       </c>
       <c r="F10">
-        <v>20.48175589600007</v>
+        <v>23.61272863052027</v>
       </c>
       <c r="G10">
-        <v>20.1070405711421</v>
+        <v>24.67474122526068</v>
       </c>
       <c r="H10">
-        <v>7.734246645057445</v>
+        <v>2.797493678863109</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.941347638317612</v>
       </c>
       <c r="J10">
-        <v>6.730616697688176</v>
+        <v>8.784550467804943</v>
       </c>
       <c r="K10">
-        <v>22.65112209740614</v>
+        <v>12.66763738679066</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.040958512327553</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.81658873782793</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.58803139219625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.31262905354586</v>
+      </c>
+      <c r="Q10">
+        <v>14.88903473997345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.887883587080548</v>
+        <v>8.732089519314846</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.30529180245027</v>
+        <v>9.348942303872994</v>
       </c>
       <c r="E11">
-        <v>13.78984948879687</v>
+        <v>12.80412795437997</v>
       </c>
       <c r="F11">
-        <v>20.79944191845869</v>
+        <v>22.63431837145543</v>
       </c>
       <c r="G11">
-        <v>20.44709562818931</v>
+        <v>23.73256364363251</v>
       </c>
       <c r="H11">
-        <v>7.688620864984854</v>
+        <v>3.466680941987178</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.917244137585334</v>
       </c>
       <c r="J11">
-        <v>6.832598953564466</v>
+        <v>8.567565271374534</v>
       </c>
       <c r="K11">
-        <v>23.37374133257383</v>
+        <v>12.52341972114534</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.266402580511847</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>19.06963495279788</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.60564589368466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.36484230368921</v>
+      </c>
+      <c r="Q11">
+        <v>14.41522370311747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.002040802919728</v>
+        <v>8.89673821799653</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.41470726946056</v>
+        <v>8.720997929357942</v>
       </c>
       <c r="E12">
-        <v>13.93164439944552</v>
+        <v>11.32983734004036</v>
       </c>
       <c r="F12">
-        <v>20.9230250809366</v>
+        <v>21.63113096052686</v>
       </c>
       <c r="G12">
-        <v>20.58183037888891</v>
+        <v>22.72847529968459</v>
       </c>
       <c r="H12">
-        <v>7.672745035245166</v>
+        <v>4.558301002130798</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.904806558962351</v>
       </c>
       <c r="J12">
-        <v>6.871501629475846</v>
+        <v>8.376891946637476</v>
       </c>
       <c r="K12">
-        <v>23.6419393461827</v>
+        <v>12.47361396591151</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.650157682895603</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>18.9822446160808</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.61577502682083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.42843695158893</v>
+      </c>
+      <c r="Q12">
+        <v>13.95922989233764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.977562574206347</v>
+        <v>8.942397828478377</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.39121334086113</v>
+        <v>8.029711248710429</v>
       </c>
       <c r="E13">
-        <v>13.90117487065398</v>
+        <v>9.896702393988685</v>
       </c>
       <c r="F13">
-        <v>20.89626327254248</v>
+        <v>20.51713923957944</v>
       </c>
       <c r="G13">
-        <v>20.55254681701403</v>
+        <v>21.56631351931696</v>
       </c>
       <c r="H13">
-        <v>7.676100206317605</v>
+        <v>5.778479593774321</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.915368739512365</v>
       </c>
       <c r="J13">
-        <v>6.863110875201405</v>
+        <v>8.189349156690851</v>
       </c>
       <c r="K13">
-        <v>23.58442005882425</v>
+        <v>12.48802398998497</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.137024877919074</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>18.64764509217385</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.61343633306848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.50699138703054</v>
+      </c>
+      <c r="Q13">
+        <v>13.47276069657986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.897323883048914</v>
+        <v>8.911716417025641</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.31432526105497</v>
+        <v>7.51318716340474</v>
       </c>
       <c r="E14">
-        <v>13.80154583953024</v>
+        <v>8.941876446533472</v>
       </c>
       <c r="F14">
-        <v>20.80954340176567</v>
+        <v>19.67991160142399</v>
       </c>
       <c r="G14">
-        <v>20.45806052576898</v>
+        <v>20.66775821658143</v>
       </c>
       <c r="H14">
-        <v>7.687286073576126</v>
+        <v>6.677375043251947</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.936172108160979</v>
       </c>
       <c r="J14">
-        <v>6.83579390295381</v>
+        <v>8.05924842431401</v>
       </c>
       <c r="K14">
-        <v>23.39591518527287</v>
+        <v>12.52743299346944</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.855428090417889</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.30168649731774</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.60640868877437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.56965575435486</v>
+      </c>
+      <c r="Q14">
+        <v>13.11623366213581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.847859923419715</v>
+        <v>8.86524772168689</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.26702285732498</v>
+        <v>7.373988755243068</v>
       </c>
       <c r="E15">
-        <v>13.74032052349135</v>
+        <v>8.713637488413543</v>
       </c>
       <c r="F15">
-        <v>20.7568524179621</v>
+        <v>19.4506201113537</v>
       </c>
       <c r="G15">
-        <v>20.40096313128277</v>
+        <v>20.4100766589594</v>
       </c>
       <c r="H15">
-        <v>7.69432330565551</v>
+        <v>6.882606946927121</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.950624552563509</v>
       </c>
       <c r="J15">
-        <v>6.819097966775159</v>
+        <v>8.027932373264745</v>
       </c>
       <c r="K15">
-        <v>23.2797419071604</v>
+        <v>12.55076192221116</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.797854289809445</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.16886024829275</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.60256079930017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.58920267152185</v>
+      </c>
+      <c r="Q15">
+        <v>13.0217558064106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.559546756708091</v>
+        <v>8.596200953068719</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.992821112470192</v>
+        <v>7.260715432494607</v>
       </c>
       <c r="E16">
-        <v>13.38645193620424</v>
+        <v>8.666396207613602</v>
       </c>
       <c r="F16">
-        <v>20.46145365531217</v>
+        <v>19.28037207391148</v>
       </c>
       <c r="G16">
-        <v>20.08564842812303</v>
+        <v>20.15019096023144</v>
       </c>
       <c r="H16">
-        <v>7.737419038127633</v>
+        <v>6.611716119580651</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.005430252494175</v>
       </c>
       <c r="J16">
-        <v>6.723992646031738</v>
+        <v>8.047183117511548</v>
       </c>
       <c r="K16">
-        <v>22.60313552306485</v>
+        <v>12.67280249472891</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.794604412228234</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>17.6648767199784</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.5873526724654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.60921487851495</v>
+      </c>
+      <c r="Q16">
+        <v>12.99073437658443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.38260459254982</v>
+        <v>8.400311307761518</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.82184977798615</v>
+        <v>7.456411471763815</v>
       </c>
       <c r="E17">
-        <v>13.16673664150453</v>
+        <v>9.130053261893469</v>
       </c>
       <c r="F17">
-        <v>20.28608066372505</v>
+        <v>19.60421610753067</v>
       </c>
       <c r="G17">
-        <v>19.90276638072785</v>
+        <v>20.44336297098927</v>
       </c>
       <c r="H17">
-        <v>7.766246170008907</v>
+        <v>5.877176511449022</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.037238797498735</v>
       </c>
       <c r="J17">
-        <v>6.666173840444888</v>
+        <v>8.13139710084277</v>
       </c>
       <c r="K17">
-        <v>22.17836480597271</v>
+        <v>12.74631904929028</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.927387448901448</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.4638443400596</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.58395533670573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.59289675411624</v>
+      </c>
+      <c r="Q17">
+        <v>13.15893132336284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.295841878698088</v>
+        <v>8.279509405011733</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.722514050156127</v>
+        <v>7.943803459403879</v>
       </c>
       <c r="E18">
-        <v>13.0394216041109</v>
+        <v>10.17060580744695</v>
       </c>
       <c r="F18">
-        <v>20.18735675671431</v>
+        <v>20.39496643802893</v>
       </c>
       <c r="G18">
-        <v>19.8014297430123</v>
+        <v>21.25271330078808</v>
       </c>
       <c r="H18">
-        <v>7.783673545595766</v>
+        <v>4.710201076458173</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.042190923419361</v>
       </c>
       <c r="J18">
-        <v>6.633116942728876</v>
+        <v>8.282054335147519</v>
       </c>
       <c r="K18">
-        <v>21.93048662301832</v>
+        <v>12.78735052052954</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.270364116664982</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.49607536071064</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.58411212728496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.54081789748174</v>
+      </c>
+      <c r="Q18">
+        <v>13.5202163251922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.266320231589273</v>
+        <v>8.167790061040737</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.688710992575107</v>
+        <v>8.634113463950072</v>
       </c>
       <c r="E19">
-        <v>12.99615597517205</v>
+        <v>11.67852139112708</v>
       </c>
       <c r="F19">
-        <v>20.15429882025573</v>
+        <v>21.48011473562815</v>
       </c>
       <c r="G19">
-        <v>19.76777760900989</v>
+        <v>22.37173282690163</v>
       </c>
       <c r="H19">
-        <v>7.789716692136514</v>
+        <v>3.463784533363262</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.044638433251104</v>
       </c>
       <c r="J19">
-        <v>6.621959191898119</v>
+        <v>8.469000783672506</v>
       </c>
       <c r="K19">
-        <v>21.845947958383</v>
+        <v>12.80318819762806</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.850601340718921</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.74186798756157</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.58452114289374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.47452563019653</v>
+      </c>
+      <c r="Q19">
+        <v>13.99393294457689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.398593011709602</v>
+        <v>8.20564195513097</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.840153590813868</v>
+        <v>9.826136367956821</v>
       </c>
       <c r="E20">
-        <v>13.1902236656813</v>
+        <v>14.27395945709177</v>
       </c>
       <c r="F20">
-        <v>20.30452725314759</v>
+        <v>23.35730259824521</v>
       </c>
       <c r="G20">
-        <v>19.92183512555567</v>
+        <v>24.34645141729448</v>
       </c>
       <c r="H20">
-        <v>7.763089141798858</v>
+        <v>2.711561460694055</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.003199567993641</v>
       </c>
       <c r="J20">
-        <v>6.672308296752521</v>
+        <v>8.762229720229808</v>
       </c>
       <c r="K20">
-        <v>22.22395101319021</v>
+        <v>12.7411368671618</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.978567477078808</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.51183249358294</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.58409695470054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.34969717990836</v>
+      </c>
+      <c r="Q20">
+        <v>14.78830074867042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.920957621141346</v>
+        <v>8.64771170841453</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.33695220107177</v>
+        <v>10.35855858190198</v>
       </c>
       <c r="E21">
-        <v>13.83085102071819</v>
+        <v>15.09947091110696</v>
       </c>
       <c r="F21">
-        <v>20.83492605545375</v>
+        <v>24.23864241072109</v>
       </c>
       <c r="G21">
-        <v>20.48565118342886</v>
+        <v>25.38179610138923</v>
       </c>
       <c r="H21">
-        <v>7.683961657184833</v>
+        <v>2.978216552267348</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.905911306784044</v>
       </c>
       <c r="J21">
-        <v>6.843809983976383</v>
+        <v>8.83985201751147</v>
       </c>
       <c r="K21">
-        <v>23.45143129513873</v>
+        <v>12.51297226268565</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.30730318501177</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.5640222385999</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.60837731667613</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.26143268412715</v>
+      </c>
+      <c r="Q21">
+        <v>15.11581779778786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.248742808942902</v>
+        <v>8.963589435802799</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.65244816414863</v>
+        <v>10.64414665369033</v>
       </c>
       <c r="E22">
-        <v>14.24066615565163</v>
+        <v>15.50666768285496</v>
       </c>
       <c r="F22">
-        <v>21.20070102570543</v>
+        <v>24.74377865551935</v>
       </c>
       <c r="G22">
-        <v>20.88890612575736</v>
+        <v>25.99579146368371</v>
       </c>
       <c r="H22">
-        <v>7.640467324475381</v>
+        <v>3.140511021751834</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.832646876582554</v>
       </c>
       <c r="J22">
-        <v>6.957545567671604</v>
+        <v>8.884508017141398</v>
       </c>
       <c r="K22">
-        <v>24.22194644905677</v>
+        <v>12.36787816523206</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.463556838954789</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>20.18717343947273</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.6445028903202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.20625290291793</v>
+      </c>
+      <c r="Q22">
+        <v>15.30994353172734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.075082622151884</v>
+        <v>8.833147937670569</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.48491560923945</v>
+        <v>10.49005785585846</v>
       </c>
       <c r="E23">
-        <v>14.02277251347329</v>
+        <v>15.28950572126031</v>
       </c>
       <c r="F23">
-        <v>21.00373039447896</v>
+        <v>24.48560395698432</v>
       </c>
       <c r="G23">
-        <v>20.67048451456197</v>
+        <v>25.68817016417941</v>
       </c>
       <c r="H23">
-        <v>7.662894799873836</v>
+        <v>3.054301973284799</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.859584475667252</v>
       </c>
       <c r="J23">
-        <v>6.896697429372074</v>
+        <v>8.864182618640806</v>
       </c>
       <c r="K23">
-        <v>23.81360758521663</v>
+        <v>12.44724519099266</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.380801848389801</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.84087047619471</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.62329885963928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.23085348077078</v>
+      </c>
+      <c r="Q23">
+        <v>15.21497512218938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.391367429497912</v>
+        <v>8.251163531662719</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.831881679005782</v>
+        <v>9.891671568793821</v>
       </c>
       <c r="E24">
-        <v>13.17960828397894</v>
+        <v>14.4415437686915</v>
       </c>
       <c r="F24">
-        <v>20.29618100832918</v>
+        <v>23.48432674186724</v>
       </c>
       <c r="G24">
-        <v>19.91320230136298</v>
+        <v>24.48858056048845</v>
       </c>
       <c r="H24">
-        <v>7.76451378075783</v>
+        <v>2.720317481282234</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.984858559917938</v>
       </c>
       <c r="J24">
-        <v>6.669534334835467</v>
+        <v>8.788084100460832</v>
       </c>
       <c r="K24">
-        <v>22.20335292553848</v>
+        <v>12.74940745843879</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.059211033734922</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.50170628353381</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.58402637347825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.33701068612021</v>
+      </c>
+      <c r="Q24">
+        <v>14.85139035843829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.743437353076112</v>
+        <v>7.561532988749686</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.089645218384993</v>
+        <v>9.207599411696178</v>
       </c>
       <c r="E25">
-        <v>12.23462788519109</v>
+        <v>13.47059295493952</v>
       </c>
       <c r="F25">
-        <v>19.6148988724652</v>
+        <v>22.39665377315025</v>
       </c>
       <c r="G25">
-        <v>19.24295463515347</v>
+        <v>23.1941834674198</v>
       </c>
       <c r="H25">
-        <v>7.906156275064828</v>
+        <v>2.343644026018768</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.128793323564289</v>
       </c>
       <c r="J25">
-        <v>6.432191611837426</v>
+        <v>8.72055436171388</v>
       </c>
       <c r="K25">
-        <v>20.33040517122042</v>
+        <v>13.08630632854038</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.696648171388285</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.94353271860644</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.62146619621969</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.4621593242605</v>
+      </c>
+      <c r="Q25">
+        <v>14.48263389864624</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.110045113831132</v>
+        <v>7.086996121270175</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.665492781637814</v>
+        <v>8.648659694166371</v>
       </c>
       <c r="E2">
-        <v>12.7066152617093</v>
+        <v>12.6920109074812</v>
       </c>
       <c r="F2">
-        <v>21.6246687502574</v>
+        <v>21.68229269135709</v>
       </c>
       <c r="G2">
-        <v>22.30231447018915</v>
+        <v>21.76947039239558</v>
       </c>
       <c r="H2">
-        <v>2.051738173207581</v>
+        <v>2.040929423435174</v>
       </c>
       <c r="I2">
-        <v>3.214689833040694</v>
+        <v>2.986991998329505</v>
       </c>
       <c r="J2">
-        <v>8.692403749409316</v>
+        <v>9.23780362365963</v>
       </c>
       <c r="K2">
-        <v>13.35267038248535</v>
+        <v>12.84672482541291</v>
       </c>
       <c r="L2">
-        <v>7.41793634702847</v>
+        <v>10.56100199078704</v>
       </c>
       <c r="M2">
-        <v>15.65158648926174</v>
+        <v>8.37641463738683</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.413846889336409</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.51051038809705</v>
       </c>
       <c r="P2">
-        <v>12.55398561033769</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.25537943960527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.42346214349545</v>
+      </c>
+      <c r="S2">
+        <v>14.30964876834131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.713790725713192</v>
+        <v>6.7199959413279</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.284060510637691</v>
+        <v>8.266249635303847</v>
       </c>
       <c r="E3">
-        <v>12.16347872982289</v>
+        <v>12.15050537249493</v>
       </c>
       <c r="F3">
-        <v>21.08586197114197</v>
+        <v>21.15066989391434</v>
       </c>
       <c r="G3">
-        <v>21.67349998401234</v>
+        <v>21.15003052148318</v>
       </c>
       <c r="H3">
-        <v>1.844155972499572</v>
+        <v>1.836656383436253</v>
       </c>
       <c r="I3">
-        <v>3.292621275004886</v>
+        <v>3.051902008971071</v>
       </c>
       <c r="J3">
-        <v>8.67472702837081</v>
+        <v>9.193395486038815</v>
       </c>
       <c r="K3">
-        <v>13.53510600579839</v>
+        <v>13.01051337613746</v>
       </c>
       <c r="L3">
-        <v>7.221318377459435</v>
+        <v>10.6940008749165</v>
       </c>
       <c r="M3">
-        <v>14.74167684884753</v>
+        <v>8.551844836940578</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.218948753602755</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14.57594925934365</v>
       </c>
       <c r="P3">
-        <v>12.62706195021786</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.10026742071451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.48614505021822</v>
+      </c>
+      <c r="S3">
+        <v>14.1571081390603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.453076186314077</v>
+        <v>6.476436589104928</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.041718661442754</v>
+        <v>8.023398865696631</v>
       </c>
       <c r="E4">
-        <v>11.81741301289173</v>
+        <v>11.80557497374408</v>
       </c>
       <c r="F4">
-        <v>20.75611646829186</v>
+        <v>20.82472485268656</v>
       </c>
       <c r="G4">
-        <v>21.29070686755898</v>
+        <v>20.77490833470839</v>
       </c>
       <c r="H4">
-        <v>1.711844805218723</v>
+        <v>1.706438386549948</v>
       </c>
       <c r="I4">
-        <v>3.34312402341408</v>
+        <v>3.094332775790718</v>
       </c>
       <c r="J4">
-        <v>8.666999818750289</v>
+        <v>9.167458637523431</v>
       </c>
       <c r="K4">
-        <v>13.6500804916485</v>
+        <v>13.11396063946826</v>
       </c>
       <c r="L4">
-        <v>7.097200640546862</v>
+        <v>10.7869347081106</v>
       </c>
       <c r="M4">
-        <v>14.15473259631618</v>
+        <v>8.6680129215737</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.095936444434893</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.9727845498108</v>
       </c>
       <c r="P4">
-        <v>12.67457269597249</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.01068149380627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.52755177631353</v>
+      </c>
+      <c r="S4">
+        <v>14.06844596242156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.329761027532434</v>
+        <v>6.360836248494472</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.941860463464239</v>
+        <v>7.923304845570926</v>
       </c>
       <c r="E5">
-        <v>11.67369724196572</v>
+        <v>11.6623352978629</v>
       </c>
       <c r="F5">
-        <v>20.618748393827</v>
+        <v>20.68896512335368</v>
       </c>
       <c r="G5">
-        <v>21.12947742319341</v>
+        <v>20.61755947421291</v>
       </c>
       <c r="H5">
-        <v>1.65665371274752</v>
+        <v>1.652118588635598</v>
       </c>
       <c r="I5">
-        <v>3.36725027702142</v>
+        <v>3.115660187057154</v>
       </c>
       <c r="J5">
-        <v>8.663573678928921</v>
+        <v>9.156260178081203</v>
       </c>
       <c r="K5">
-        <v>13.69654342334076</v>
+        <v>13.15541464082835</v>
       </c>
       <c r="L5">
-        <v>7.045710393269777</v>
+        <v>10.82433049597824</v>
       </c>
       <c r="M5">
-        <v>13.91410096177868</v>
+        <v>8.718757468763071</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.044915234165802</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.72494641970943</v>
       </c>
       <c r="P5">
-        <v>12.69535733103026</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.97297924215171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.54582202756659</v>
+      </c>
+      <c r="S5">
+        <v>14.03112077802969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.293424581489622</v>
+        <v>6.326986231618265</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.926190809521001</v>
+        <v>7.907529395654817</v>
       </c>
       <c r="E6">
-        <v>11.65007627811793</v>
+        <v>11.63876753744614</v>
       </c>
       <c r="F6">
-        <v>20.59178416287652</v>
+        <v>20.66253120968652</v>
       </c>
       <c r="G6">
-        <v>21.09511863622685</v>
+        <v>20.58423096486958</v>
       </c>
       <c r="H6">
-        <v>1.647369133930324</v>
+        <v>1.642982557093594</v>
       </c>
       <c r="I6">
-        <v>3.374975641677162</v>
+        <v>3.123594789392354</v>
       </c>
       <c r="J6">
-        <v>8.661771541809623</v>
+        <v>9.15324532797125</v>
       </c>
       <c r="K6">
-        <v>13.70294506309731</v>
+        <v>13.16063487077549</v>
       </c>
       <c r="L6">
-        <v>7.036997120294323</v>
+        <v>10.82678036575414</v>
       </c>
       <c r="M6">
-        <v>13.88054098889208</v>
+        <v>8.728879645602394</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.03628815374288</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.68976821831257</v>
       </c>
       <c r="P6">
-        <v>12.69980088924881</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.96361104073572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.54973504446665</v>
+      </c>
+      <c r="S6">
+        <v>14.02200907980717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.409678218765073</v>
+        <v>6.438770704434543</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.043133991624902</v>
+        <v>8.027767496172515</v>
       </c>
       <c r="E7">
-        <v>11.81662400194462</v>
+        <v>11.8057094307221</v>
       </c>
       <c r="F7">
-        <v>20.74295114479851</v>
+        <v>20.79895100150092</v>
       </c>
       <c r="G7">
-        <v>21.267858422754</v>
+        <v>20.84458623918858</v>
       </c>
       <c r="H7">
-        <v>1.710986482604573</v>
+        <v>1.70502327870252</v>
       </c>
       <c r="I7">
-        <v>3.353142138123264</v>
+        <v>3.106222890791094</v>
       </c>
       <c r="J7">
-        <v>8.663471816336207</v>
+        <v>9.124889930352658</v>
       </c>
       <c r="K7">
-        <v>13.64707837004978</v>
+        <v>13.10952206180968</v>
       </c>
       <c r="L7">
-        <v>7.096200298436855</v>
+        <v>10.77643473186729</v>
       </c>
       <c r="M7">
-        <v>14.16975825137456</v>
+        <v>8.672738756032382</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.094374133896229</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.97932518948774</v>
       </c>
       <c r="P7">
-        <v>12.67754229830025</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.00149976448316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.53098115336761</v>
+      </c>
+      <c r="S7">
+        <v>14.04993675515973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.925541771525741</v>
+        <v>6.924078384301999</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.539164992433243</v>
+        <v>8.531693054426944</v>
       </c>
       <c r="E8">
-        <v>12.52345595880452</v>
+        <v>12.51252108739961</v>
       </c>
       <c r="F8">
-        <v>21.42433875602459</v>
+        <v>21.44236817036194</v>
       </c>
       <c r="G8">
-        <v>22.05867888437217</v>
+        <v>21.82482821098733</v>
       </c>
       <c r="H8">
-        <v>1.981022275801655</v>
+        <v>1.969573986634171</v>
       </c>
       <c r="I8">
-        <v>3.25316152315598</v>
+        <v>3.023667376339766</v>
       </c>
       <c r="J8">
-        <v>8.68111270049177</v>
+        <v>9.089856606147945</v>
       </c>
       <c r="K8">
-        <v>13.41067919369522</v>
+        <v>12.89623891189876</v>
       </c>
       <c r="L8">
-        <v>7.350481695854782</v>
+        <v>10.59227912868487</v>
       </c>
       <c r="M8">
-        <v>15.36628158484071</v>
+        <v>8.438317451080506</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.345166325733085</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.19299059080824</v>
       </c>
       <c r="P8">
-        <v>12.58258701222073</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.18950355232568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.45101598300696</v>
+      </c>
+      <c r="S8">
+        <v>14.21308562362583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.864368479289982</v>
+        <v>7.784850615538332</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.438791822486971</v>
+        <v>9.436013947771237</v>
       </c>
       <c r="E9">
-        <v>13.80320387088056</v>
+        <v>13.78959037179915</v>
       </c>
       <c r="F9">
-        <v>22.78191254854311</v>
+        <v>22.76926993172768</v>
       </c>
       <c r="G9">
-        <v>23.66274499304815</v>
+        <v>23.47322572009526</v>
       </c>
       <c r="H9">
-        <v>2.472939744591379</v>
+        <v>2.453270299429871</v>
       </c>
       <c r="I9">
-        <v>3.062307281787221</v>
+        <v>2.8630598120151</v>
       </c>
       <c r="J9">
-        <v>8.747416145743033</v>
+        <v>9.178075118077839</v>
       </c>
       <c r="K9">
-        <v>12.97583198430127</v>
+        <v>12.50901105762835</v>
       </c>
       <c r="L9">
-        <v>7.821272978787556</v>
+        <v>10.33887678167522</v>
       </c>
       <c r="M9">
-        <v>17.45626719092536</v>
+        <v>8.041580192129093</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.811625978053945</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>17.33636278239715</v>
       </c>
       <c r="P9">
-        <v>12.41240162152026</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.61828997172238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.31003720926353</v>
+      </c>
+      <c r="S9">
+        <v>14.62339551034758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.458115814038981</v>
+        <v>8.33819230380147</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.956995961529074</v>
+        <v>9.972533938240179</v>
       </c>
       <c r="E10">
-        <v>14.44709808647161</v>
+        <v>14.43681502665134</v>
       </c>
       <c r="F10">
-        <v>23.61272863052027</v>
+        <v>23.50865332977873</v>
       </c>
       <c r="G10">
-        <v>24.67474122526068</v>
+        <v>24.99115748915572</v>
       </c>
       <c r="H10">
-        <v>2.797493678863109</v>
+        <v>2.769633257992705</v>
       </c>
       <c r="I10">
-        <v>2.941347638317612</v>
+        <v>2.765566353079379</v>
       </c>
       <c r="J10">
-        <v>8.784550467804943</v>
+        <v>9.008988035382522</v>
       </c>
       <c r="K10">
-        <v>12.66763738679066</v>
+        <v>12.23560603867206</v>
       </c>
       <c r="L10">
-        <v>8.040958512327553</v>
+        <v>10.21116828384419</v>
       </c>
       <c r="M10">
-        <v>18.81658873782793</v>
+        <v>7.787286372705153</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.025674514919515</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>18.69482683275767</v>
       </c>
       <c r="P10">
-        <v>12.31262905354586</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.88903473997345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.23912861739553</v>
+      </c>
+      <c r="S10">
+        <v>14.82491375247522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.732089519314846</v>
+        <v>8.657492806307106</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.348942303872994</v>
+        <v>9.394415568399232</v>
       </c>
       <c r="E11">
-        <v>12.80412795437997</v>
+        <v>12.80028294945189</v>
       </c>
       <c r="F11">
-        <v>22.63431837145543</v>
+        <v>22.38883267520413</v>
       </c>
       <c r="G11">
-        <v>23.73256364363251</v>
+        <v>25.07246395392451</v>
       </c>
       <c r="H11">
-        <v>3.466680941987178</v>
+        <v>3.439076886911231</v>
       </c>
       <c r="I11">
-        <v>2.917244137585334</v>
+        <v>2.754417832972991</v>
       </c>
       <c r="J11">
-        <v>8.567565271374534</v>
+        <v>8.394309054970218</v>
       </c>
       <c r="K11">
-        <v>12.52341972114534</v>
+        <v>12.11217006661308</v>
       </c>
       <c r="L11">
-        <v>7.266402580511847</v>
+        <v>10.17609299915274</v>
       </c>
       <c r="M11">
-        <v>19.06963495279788</v>
+        <v>7.664267347376064</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.244644169436683</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.87235862921707</v>
       </c>
       <c r="P11">
-        <v>12.36484230368921</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.41522370311747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.31423199287476</v>
+      </c>
+      <c r="S11">
+        <v>14.24072105918552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.89673821799653</v>
+        <v>8.857731899223463</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.720997929357942</v>
+        <v>8.778044593748961</v>
       </c>
       <c r="E12">
-        <v>11.32983734004036</v>
+        <v>11.3256300430486</v>
       </c>
       <c r="F12">
-        <v>21.63113096052686</v>
+        <v>21.32908154660409</v>
       </c>
       <c r="G12">
-        <v>22.72847529968459</v>
+        <v>24.53913807660984</v>
       </c>
       <c r="H12">
-        <v>4.558301002130798</v>
+        <v>4.536283819697097</v>
       </c>
       <c r="I12">
-        <v>2.904806558962351</v>
+        <v>2.744495129642927</v>
       </c>
       <c r="J12">
-        <v>8.376891946637476</v>
+        <v>8.067779254282465</v>
       </c>
       <c r="K12">
-        <v>12.47361396591151</v>
+        <v>12.07229055035908</v>
       </c>
       <c r="L12">
-        <v>6.650157682895603</v>
+        <v>10.17626919139317</v>
       </c>
       <c r="M12">
-        <v>18.9822446160808</v>
+        <v>7.61584770126378</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.626110657763938</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>18.74308780225404</v>
       </c>
       <c r="P12">
-        <v>12.42843695158893</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.95922989233764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.38750735617046</v>
+      </c>
+      <c r="S12">
+        <v>13.74114745569633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.942397828478377</v>
+        <v>8.934844247341903</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.029711248710429</v>
+        <v>8.078716517210205</v>
       </c>
       <c r="E13">
-        <v>9.896702393988685</v>
+        <v>9.885341794868099</v>
       </c>
       <c r="F13">
-        <v>20.51713923957944</v>
+        <v>20.24897536829153</v>
       </c>
       <c r="G13">
-        <v>21.56631351931696</v>
+        <v>23.24894349882937</v>
       </c>
       <c r="H13">
-        <v>5.778479593774321</v>
+        <v>5.762302305449031</v>
       </c>
       <c r="I13">
-        <v>2.915368739512365</v>
+        <v>2.752453202341947</v>
       </c>
       <c r="J13">
-        <v>8.189349156690851</v>
+        <v>7.972093634319136</v>
       </c>
       <c r="K13">
-        <v>12.48802398998497</v>
+        <v>12.08692416542076</v>
       </c>
       <c r="L13">
-        <v>6.137024877919074</v>
+        <v>10.18813065209167</v>
       </c>
       <c r="M13">
-        <v>18.64764509217385</v>
+        <v>7.621555061566459</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.114629258103331</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>18.40163780843865</v>
       </c>
       <c r="P13">
-        <v>12.50699138703054</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.47276069657986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.46060984377098</v>
+      </c>
+      <c r="S13">
+        <v>13.28220726097989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.911716417025641</v>
+        <v>8.925618931339788</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.51318716340474</v>
+        <v>7.548277057625658</v>
       </c>
       <c r="E14">
-        <v>8.941876446533472</v>
+        <v>8.923325426594568</v>
       </c>
       <c r="F14">
-        <v>19.67991160142399</v>
+        <v>19.47385119602581</v>
       </c>
       <c r="G14">
-        <v>20.66775821658143</v>
+        <v>21.99801556497</v>
       </c>
       <c r="H14">
-        <v>6.677375043251947</v>
+        <v>6.664780195804957</v>
       </c>
       <c r="I14">
-        <v>2.936172108160979</v>
+        <v>2.769757472409487</v>
       </c>
       <c r="J14">
-        <v>8.05924842431401</v>
+        <v>7.992741125246747</v>
       </c>
       <c r="K14">
-        <v>12.52743299346944</v>
+        <v>12.12106408047221</v>
       </c>
       <c r="L14">
-        <v>5.855428090417889</v>
+        <v>10.19962756295147</v>
       </c>
       <c r="M14">
-        <v>18.30168649731774</v>
+        <v>7.651513100233679</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.835753369524279</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>18.06569101302152</v>
       </c>
       <c r="P14">
-        <v>12.56965575435486</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.11623366213581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.5120458414557</v>
+      </c>
+      <c r="S14">
+        <v>12.97454191529848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.86524772168689</v>
+        <v>8.885114338660982</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.373988755243068</v>
+        <v>7.402278844112652</v>
       </c>
       <c r="E15">
-        <v>8.713637488413543</v>
+        <v>8.692893869971515</v>
       </c>
       <c r="F15">
-        <v>19.4506201113537</v>
+        <v>19.27592245940995</v>
       </c>
       <c r="G15">
-        <v>20.4100766589594</v>
+        <v>21.54335214212256</v>
       </c>
       <c r="H15">
-        <v>6.882606946927121</v>
+        <v>6.871053178376522</v>
       </c>
       <c r="I15">
-        <v>2.950624552563509</v>
+        <v>2.783142191387062</v>
       </c>
       <c r="J15">
-        <v>8.027932373264745</v>
+        <v>8.035304504518709</v>
       </c>
       <c r="K15">
-        <v>12.55076192221116</v>
+        <v>12.14078576012521</v>
       </c>
       <c r="L15">
-        <v>5.797854289809445</v>
+        <v>10.20426676726458</v>
       </c>
       <c r="M15">
-        <v>18.16886024829275</v>
+        <v>7.671136641554331</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.779419828874111</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>17.94136435641175</v>
       </c>
       <c r="P15">
-        <v>12.58920267152185</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.0217558064106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.52562586264293</v>
+      </c>
+      <c r="S15">
+        <v>12.90444859855693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.596200953068719</v>
+        <v>8.615711779422384</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.260715432494607</v>
+        <v>7.261341183015939</v>
       </c>
       <c r="E16">
-        <v>8.666396207613602</v>
+        <v>8.642473052464078</v>
       </c>
       <c r="F16">
-        <v>19.28037207391148</v>
+        <v>19.23820934711235</v>
       </c>
       <c r="G16">
-        <v>20.15019096023144</v>
+        <v>20.37066952640518</v>
       </c>
       <c r="H16">
-        <v>6.611716119580651</v>
+        <v>6.602823309216276</v>
       </c>
       <c r="I16">
-        <v>3.005430252494175</v>
+        <v>2.828741371276097</v>
       </c>
       <c r="J16">
-        <v>8.047183117511548</v>
+        <v>8.378598312291784</v>
       </c>
       <c r="K16">
-        <v>12.67280249472891</v>
+        <v>12.24291157829666</v>
       </c>
       <c r="L16">
-        <v>5.794604412228234</v>
+        <v>10.21921364225516</v>
       </c>
       <c r="M16">
-        <v>17.6648767199784</v>
+        <v>7.784905070762754</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.781158642096458</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.48925410453658</v>
       </c>
       <c r="P16">
-        <v>12.60921487851495</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.99073437658443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.51972671273456</v>
+      </c>
+      <c r="S16">
+        <v>12.9751122071185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.400311307761518</v>
+        <v>8.410408991658725</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.456411471763815</v>
+        <v>7.446354244623057</v>
       </c>
       <c r="E17">
-        <v>9.130053261893469</v>
+        <v>9.106525425911647</v>
       </c>
       <c r="F17">
-        <v>19.60421610753067</v>
+        <v>19.6149210152399</v>
       </c>
       <c r="G17">
-        <v>20.44336297098927</v>
+        <v>20.27807969931654</v>
       </c>
       <c r="H17">
-        <v>5.877176511449022</v>
+        <v>5.868742576391049</v>
       </c>
       <c r="I17">
-        <v>3.037238797498735</v>
+        <v>2.855593498501664</v>
       </c>
       <c r="J17">
-        <v>8.13139710084277</v>
+        <v>8.602791332227538</v>
       </c>
       <c r="K17">
-        <v>12.74631904929028</v>
+        <v>12.30579744749399</v>
       </c>
       <c r="L17">
-        <v>5.927387448901448</v>
+        <v>10.23246886593649</v>
       </c>
       <c r="M17">
-        <v>17.4638443400596</v>
+        <v>7.855185733123003</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.916258284336645</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>17.31417090276177</v>
       </c>
       <c r="P17">
-        <v>12.59289675411624</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.15893132336284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.49282392930458</v>
+      </c>
+      <c r="S17">
+        <v>13.18335706399013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.279509405011733</v>
+        <v>8.264595314472018</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.943803459403879</v>
+        <v>7.930863125473353</v>
       </c>
       <c r="E18">
-        <v>10.17060580744695</v>
+        <v>10.14872938200564</v>
       </c>
       <c r="F18">
-        <v>20.39496643802893</v>
+        <v>20.42157807936624</v>
       </c>
       <c r="G18">
-        <v>21.25271330078808</v>
+        <v>20.92894245324596</v>
       </c>
       <c r="H18">
-        <v>4.710201076458173</v>
+        <v>4.70027319321328</v>
       </c>
       <c r="I18">
-        <v>3.042190923419361</v>
+        <v>2.856539926292788</v>
       </c>
       <c r="J18">
-        <v>8.282054335147519</v>
+        <v>8.808244713630991</v>
       </c>
       <c r="K18">
-        <v>12.78735052052954</v>
+        <v>12.34222281324917</v>
       </c>
       <c r="L18">
-        <v>6.270364116664982</v>
+        <v>10.24397700111811</v>
       </c>
       <c r="M18">
-        <v>17.49607536071064</v>
+        <v>7.893552638731936</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.260329655793988</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>17.36578089377883</v>
       </c>
       <c r="P18">
-        <v>12.54081789748174</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.5202163251922</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.43868503853363</v>
+      </c>
+      <c r="S18">
+        <v>13.55663605545504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.167790061040737</v>
+        <v>8.120799751206286</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.634113463950072</v>
+        <v>8.622307531955405</v>
       </c>
       <c r="E19">
-        <v>11.67852139112708</v>
+        <v>11.65873608640724</v>
       </c>
       <c r="F19">
-        <v>21.48011473562815</v>
+        <v>21.50318271647784</v>
       </c>
       <c r="G19">
-        <v>22.37173282690163</v>
+        <v>22.00924035980803</v>
       </c>
       <c r="H19">
-        <v>3.463784533363262</v>
+        <v>3.449680661897366</v>
       </c>
       <c r="I19">
-        <v>3.044638433251104</v>
+        <v>2.860236999059355</v>
       </c>
       <c r="J19">
-        <v>8.469000783672506</v>
+        <v>9.004907645511304</v>
       </c>
       <c r="K19">
-        <v>12.80318819762806</v>
+        <v>12.35690743230922</v>
       </c>
       <c r="L19">
-        <v>6.850601340718921</v>
+        <v>10.25227568797401</v>
       </c>
       <c r="M19">
-        <v>17.74186798756157</v>
+        <v>7.906037960584351</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.840863281162725</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>17.62755006118438</v>
       </c>
       <c r="P19">
-        <v>12.47452563019653</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.99393294457689</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.37484646575113</v>
+      </c>
+      <c r="S19">
+        <v>14.0278370219663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.20564195513097</v>
+        <v>8.098987882105629</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.826136367956821</v>
+        <v>9.826999932175253</v>
       </c>
       <c r="E20">
-        <v>14.27395945709177</v>
+        <v>14.25938118917301</v>
       </c>
       <c r="F20">
-        <v>23.35730259824521</v>
+        <v>23.32210959540743</v>
       </c>
       <c r="G20">
-        <v>24.34645141729448</v>
+        <v>24.24513540808038</v>
       </c>
       <c r="H20">
-        <v>2.711561460694055</v>
+        <v>2.68745689708949</v>
       </c>
       <c r="I20">
-        <v>3.003199567993641</v>
+        <v>2.826993308547479</v>
       </c>
       <c r="J20">
-        <v>8.762229720229808</v>
+        <v>9.174543084501309</v>
       </c>
       <c r="K20">
-        <v>12.7411368671618</v>
+        <v>12.30174757770632</v>
       </c>
       <c r="L20">
-        <v>7.978567477078808</v>
+        <v>10.23600320768823</v>
       </c>
       <c r="M20">
-        <v>18.51183249358294</v>
+        <v>7.848367362183333</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.96648811650983</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>18.40847534849422</v>
       </c>
       <c r="P20">
-        <v>12.34969717990836</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.78830074867042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.26405395437461</v>
+      </c>
+      <c r="S20">
+        <v>14.77788862226921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.64771170841453</v>
+        <v>8.533268442967261</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.35855858190198</v>
+        <v>10.42298215168152</v>
       </c>
       <c r="E21">
-        <v>15.09947091110696</v>
+        <v>15.10518424279705</v>
       </c>
       <c r="F21">
-        <v>24.23864241072109</v>
+        <v>23.9075454328697</v>
       </c>
       <c r="G21">
-        <v>25.38179610138923</v>
+        <v>27.16524751194166</v>
       </c>
       <c r="H21">
-        <v>2.978216552267348</v>
+        <v>2.939729051206598</v>
       </c>
       <c r="I21">
-        <v>2.905911306784044</v>
+        <v>2.748933342271252</v>
       </c>
       <c r="J21">
-        <v>8.83985201751147</v>
+        <v>8.435364263055515</v>
       </c>
       <c r="K21">
-        <v>12.51297226268565</v>
+        <v>12.09789978658362</v>
       </c>
       <c r="L21">
-        <v>8.30730318501177</v>
+        <v>10.16633095555905</v>
       </c>
       <c r="M21">
-        <v>19.5640222385999</v>
+        <v>7.65888936824551</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.282386484496088</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>19.35696283235354</v>
       </c>
       <c r="P21">
-        <v>12.26143268412715</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.11581779778786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.22097496140435</v>
+      </c>
+      <c r="S21">
+        <v>14.8722958914688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.963589435802799</v>
+        <v>8.844946351293032</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.64414665369033</v>
+        <v>10.75279767702871</v>
       </c>
       <c r="E22">
-        <v>15.50666768285496</v>
+        <v>15.52715295979131</v>
       </c>
       <c r="F22">
-        <v>24.74377865551935</v>
+        <v>24.20520106577479</v>
       </c>
       <c r="G22">
-        <v>25.99579146368371</v>
+        <v>29.09450768951786</v>
       </c>
       <c r="H22">
-        <v>3.140511021751834</v>
+        <v>3.092961114583956</v>
       </c>
       <c r="I22">
-        <v>2.832646876582554</v>
+        <v>2.685506463727644</v>
       </c>
       <c r="J22">
-        <v>8.884508017141398</v>
+        <v>7.95572705645012</v>
       </c>
       <c r="K22">
-        <v>12.36787816523206</v>
+        <v>11.96860653262715</v>
       </c>
       <c r="L22">
-        <v>8.463556838954789</v>
+        <v>10.13454807570614</v>
       </c>
       <c r="M22">
-        <v>20.18717343947273</v>
+        <v>7.542445587803803</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.430135356066499</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>19.90798150291296</v>
       </c>
       <c r="P22">
-        <v>12.20625290291793</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.30994353172734</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.19855970547647</v>
+      </c>
+      <c r="S22">
+        <v>14.89968031866971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.833147937670569</v>
+        <v>8.709094865547668</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.49005785585846</v>
+        <v>10.56848499903442</v>
       </c>
       <c r="E23">
-        <v>15.28950572126031</v>
+        <v>15.29967985316503</v>
       </c>
       <c r="F23">
-        <v>24.48560395698432</v>
+        <v>24.08784844441054</v>
       </c>
       <c r="G23">
-        <v>25.68817016417941</v>
+        <v>27.87686225015288</v>
       </c>
       <c r="H23">
-        <v>3.054301973284799</v>
+        <v>3.012515611586786</v>
       </c>
       <c r="I23">
-        <v>2.859584475667252</v>
+        <v>2.704542998317705</v>
       </c>
       <c r="J23">
-        <v>8.864182618640806</v>
+        <v>8.289060735713985</v>
       </c>
       <c r="K23">
-        <v>12.44724519099266</v>
+        <v>12.03866694605999</v>
       </c>
       <c r="L23">
-        <v>8.380801848389801</v>
+        <v>10.14922724727194</v>
       </c>
       <c r="M23">
-        <v>19.84087047619471</v>
+        <v>7.607668699802629</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.353004364404249</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>19.61534252335751</v>
       </c>
       <c r="P23">
-        <v>12.23085348077078</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.21497512218938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.20245161792798</v>
+      </c>
+      <c r="S23">
+        <v>14.91788431702772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.251163531662719</v>
+        <v>8.135794432229385</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.891671568793821</v>
+        <v>9.892522493734583</v>
       </c>
       <c r="E24">
-        <v>14.4415437686915</v>
+        <v>14.42712496711805</v>
       </c>
       <c r="F24">
-        <v>23.48432674186724</v>
+        <v>23.44930880169425</v>
       </c>
       <c r="G24">
-        <v>24.48858056048845</v>
+        <v>24.36933545534627</v>
       </c>
       <c r="H24">
-        <v>2.720317481282234</v>
+        <v>2.696214885406159</v>
       </c>
       <c r="I24">
-        <v>2.984858559917938</v>
+        <v>2.804734851273537</v>
       </c>
       <c r="J24">
-        <v>8.788084100460832</v>
+        <v>9.205768591630223</v>
       </c>
       <c r="K24">
-        <v>12.74940745843879</v>
+        <v>12.30870824007646</v>
       </c>
       <c r="L24">
-        <v>8.059211033734922</v>
+        <v>10.24042606316612</v>
       </c>
       <c r="M24">
-        <v>18.50170628353381</v>
+        <v>7.854321726682017</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.047204940700157</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>18.40221946930235</v>
       </c>
       <c r="P24">
-        <v>12.33701068612021</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.85139035843829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.25147234993123</v>
+      </c>
+      <c r="S24">
+        <v>14.84104510036423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.561532988749686</v>
+        <v>7.505945665796662</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.207599411696178</v>
+        <v>9.199239927344838</v>
       </c>
       <c r="E25">
-        <v>13.47059295493952</v>
+        <v>13.45617186229883</v>
       </c>
       <c r="F25">
-        <v>22.39665377315025</v>
+        <v>22.41168857067037</v>
       </c>
       <c r="G25">
-        <v>23.1941834674198</v>
+        <v>22.87249876838503</v>
       </c>
       <c r="H25">
-        <v>2.343644026018768</v>
+        <v>2.32686889541578</v>
       </c>
       <c r="I25">
-        <v>3.128793323564289</v>
+        <v>2.924517191671146</v>
       </c>
       <c r="J25">
-        <v>8.72055436171388</v>
+        <v>9.201721438752827</v>
       </c>
       <c r="K25">
-        <v>13.08630632854038</v>
+        <v>12.60709334313104</v>
       </c>
       <c r="L25">
-        <v>7.696648171388285</v>
+        <v>10.39069377367551</v>
       </c>
       <c r="M25">
-        <v>16.94353271860644</v>
+        <v>8.14198857099271</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.688893864265581</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.81733142800293</v>
       </c>
       <c r="P25">
-        <v>12.4621593242605</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.48263389864624</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.34989313072307</v>
+      </c>
+      <c r="S25">
+        <v>14.50791587744049</v>
       </c>
     </row>
   </sheetData>
